--- a/GA_POC/GiantPelda.xlsx
+++ b/GA_POC/GiantPelda.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Megoldás" sheetId="1" r:id="rId1"/>
     <sheet name="Állítások" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,74 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="281">
-  <si>
-    <t>NÉV</t>
-  </si>
-  <si>
-    <t>AUTÓ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="287">
   <si>
     <t>KERESET</t>
   </si>
   <si>
-    <t>KEDVENC SZÍN</t>
-  </si>
-  <si>
-    <t>KEDVENC ÉTEL</t>
-  </si>
-  <si>
     <t>KEDVENC ITAL</t>
   </si>
   <si>
-    <t>KEDVENC ÁLLAT</t>
-  </si>
-  <si>
     <t>MUNKA</t>
   </si>
   <si>
-    <t>ÉLETKOR</t>
-  </si>
-  <si>
-    <t>Dani</t>
-  </si>
-  <si>
-    <t>Peti</t>
-  </si>
-  <si>
-    <t>Laci</t>
-  </si>
-  <si>
-    <t>András</t>
-  </si>
-  <si>
-    <t>Márk</t>
-  </si>
-  <si>
-    <t>Réka</t>
-  </si>
-  <si>
-    <t>Petra</t>
-  </si>
-  <si>
-    <t>Zoli</t>
-  </si>
-  <si>
-    <t>Zsófi</t>
-  </si>
-  <si>
-    <t>Jani</t>
-  </si>
-  <si>
-    <t>Béla</t>
-  </si>
-  <si>
-    <t>Gizi</t>
-  </si>
-  <si>
-    <t>Józsi</t>
-  </si>
-  <si>
     <t>15.</t>
   </si>
   <si>
@@ -133,736 +76,811 @@
     <t>14.</t>
   </si>
   <si>
-    <t>Dalma</t>
-  </si>
-  <si>
-    <t>Eszter</t>
-  </si>
-  <si>
-    <t>zöld</t>
-  </si>
-  <si>
-    <t>sárga</t>
-  </si>
-  <si>
-    <t>barna</t>
-  </si>
-  <si>
-    <t>kék</t>
-  </si>
-  <si>
-    <t>narancs</t>
-  </si>
-  <si>
-    <t>lila</t>
-  </si>
-  <si>
-    <t>piros</t>
-  </si>
-  <si>
-    <t>rózsaszín</t>
-  </si>
-  <si>
-    <t>fekete</t>
-  </si>
-  <si>
-    <t>fehér</t>
-  </si>
-  <si>
-    <t>szürke</t>
-  </si>
-  <si>
-    <t>magenta</t>
-  </si>
-  <si>
-    <t>okker</t>
-  </si>
-  <si>
-    <t>bíbor</t>
-  </si>
-  <si>
-    <t>arany</t>
-  </si>
-  <si>
-    <t>Audi</t>
-  </si>
-  <si>
-    <t>Renault</t>
-  </si>
-  <si>
-    <t>Ferrari</t>
-  </si>
-  <si>
-    <t>Peugeot</t>
-  </si>
-  <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Skoda</t>
-  </si>
-  <si>
-    <t>Volvo</t>
-  </si>
-  <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Porsche</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Mazda</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>oroszlán</t>
-  </si>
-  <si>
-    <t>tigris</t>
-  </si>
-  <si>
     <t>BMW</t>
   </si>
   <si>
-    <t>ló</t>
-  </si>
-  <si>
-    <t>kecske</t>
-  </si>
-  <si>
-    <t>kutya</t>
-  </si>
-  <si>
-    <t>macska</t>
-  </si>
-  <si>
-    <t>teknős</t>
-  </si>
-  <si>
-    <t>béka</t>
-  </si>
-  <si>
-    <t>róka</t>
-  </si>
-  <si>
-    <t>farkas</t>
-  </si>
-  <si>
-    <t>szamár</t>
-  </si>
-  <si>
-    <t>kosár</t>
-  </si>
-  <si>
-    <t>röplabda</t>
-  </si>
-  <si>
-    <t>pillangó</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>Miskolc</t>
-  </si>
-  <si>
-    <t>Győr</t>
-  </si>
-  <si>
-    <t>Veszprém</t>
-  </si>
-  <si>
-    <t>Pécs</t>
-  </si>
-  <si>
-    <t>Szolnok</t>
-  </si>
-  <si>
-    <t>Debrecen</t>
-  </si>
-  <si>
-    <t>Esztergom</t>
-  </si>
-  <si>
-    <t>Szeged</t>
-  </si>
-  <si>
-    <t>Kecskemét</t>
-  </si>
-  <si>
-    <t>Székesfehérvár</t>
-  </si>
-  <si>
-    <t>Szombathely</t>
-  </si>
-  <si>
-    <t>Nyíregyháza</t>
-  </si>
-  <si>
-    <t>tengerimalac</t>
-  </si>
-  <si>
-    <t>delfin</t>
-  </si>
-  <si>
-    <t>Vác</t>
-  </si>
-  <si>
-    <t>Mór</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>120k</t>
-  </si>
-  <si>
-    <t>140k</t>
-  </si>
-  <si>
-    <t>160k</t>
-  </si>
-  <si>
-    <t>180k</t>
-  </si>
-  <si>
-    <t>200k</t>
-  </si>
-  <si>
-    <t>220k</t>
-  </si>
-  <si>
-    <t>240k</t>
-  </si>
-  <si>
-    <t>260k</t>
-  </si>
-  <si>
-    <t>280k</t>
-  </si>
-  <si>
-    <t>300k</t>
-  </si>
-  <si>
-    <t>340k</t>
-  </si>
-  <si>
-    <t>320k</t>
-  </si>
-  <si>
-    <t>360k</t>
-  </si>
-  <si>
-    <t>380k</t>
-  </si>
-  <si>
-    <t>körte</t>
-  </si>
-  <si>
-    <t>banán</t>
-  </si>
-  <si>
-    <t>alma</t>
-  </si>
-  <si>
-    <t>ribizli</t>
-  </si>
-  <si>
-    <t>KEDVENC GYÜMÖLCS/ZÖLDSÉG</t>
-  </si>
-  <si>
-    <t>dió</t>
-  </si>
-  <si>
-    <t>paradicsom</t>
-  </si>
-  <si>
-    <t>paprika</t>
-  </si>
-  <si>
-    <t>káposzta</t>
-  </si>
-  <si>
-    <t>brokkoli</t>
-  </si>
-  <si>
-    <t>kiwi</t>
-  </si>
-  <si>
-    <t>dinnye</t>
-  </si>
-  <si>
-    <t>barack</t>
-  </si>
-  <si>
-    <t>szőlő</t>
-  </si>
-  <si>
-    <t>szilva</t>
-  </si>
-  <si>
-    <t>töri</t>
-  </si>
-  <si>
-    <t>KEDVENC ISKOLAI TANTÁRGY</t>
-  </si>
-  <si>
-    <t>kémia</t>
-  </si>
-  <si>
-    <t>tesi</t>
-  </si>
-  <si>
-    <t>matek</t>
-  </si>
-  <si>
-    <t>fizika</t>
-  </si>
-  <si>
-    <t>informatika</t>
-  </si>
-  <si>
-    <t>irodalom</t>
-  </si>
-  <si>
-    <t>nyelvtan</t>
-  </si>
-  <si>
-    <t>filozófia</t>
-  </si>
-  <si>
-    <t>biosz</t>
-  </si>
-  <si>
-    <t>angol</t>
-  </si>
-  <si>
-    <t>német</t>
-  </si>
-  <si>
-    <t>spanyol</t>
-  </si>
-  <si>
-    <t>orosz</t>
-  </si>
-  <si>
-    <t>olasz</t>
-  </si>
-  <si>
-    <t>foci</t>
-  </si>
-  <si>
-    <t>íjászat</t>
-  </si>
-  <si>
-    <t>rögbi</t>
-  </si>
-  <si>
-    <t>lövészet</t>
-  </si>
-  <si>
-    <t>futsal</t>
-  </si>
-  <si>
-    <t>falmászás</t>
-  </si>
-  <si>
-    <t>gokart</t>
-  </si>
-  <si>
-    <t>futás</t>
-  </si>
-  <si>
-    <t>aerobik</t>
-  </si>
-  <si>
-    <t>karate</t>
-  </si>
-  <si>
-    <t>kung-fu</t>
-  </si>
-  <si>
-    <t>judo</t>
-  </si>
-  <si>
-    <t>RUHAMÁRKA</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
-    <t>lecsó</t>
-  </si>
-  <si>
-    <t>rántott hús</t>
-  </si>
-  <si>
-    <t>pacal</t>
-  </si>
-  <si>
-    <t>spagetti</t>
-  </si>
-  <si>
-    <t>húsleves</t>
-  </si>
-  <si>
-    <t>sültkrumli</t>
-  </si>
-  <si>
-    <t>pite</t>
-  </si>
-  <si>
-    <t>süti</t>
-  </si>
-  <si>
-    <t>palacsinta</t>
-  </si>
-  <si>
-    <t>lekvár</t>
-  </si>
-  <si>
-    <t>főzelék</t>
-  </si>
-  <si>
-    <t>tanár</t>
-  </si>
-  <si>
-    <t>kőműves</t>
-  </si>
-  <si>
-    <t>tűzoltó</t>
-  </si>
-  <si>
-    <t>rendőr</t>
-  </si>
-  <si>
-    <t>építész</t>
-  </si>
-  <si>
-    <t>mérnök</t>
-  </si>
-  <si>
-    <t>ügyvéd</t>
-  </si>
-  <si>
-    <t>bíró</t>
-  </si>
-  <si>
-    <t>katona</t>
-  </si>
-  <si>
-    <t>rakott krumpli</t>
-  </si>
-  <si>
-    <t>eladó</t>
-  </si>
-  <si>
-    <t>nyomozó</t>
-  </si>
-  <si>
-    <t>író</t>
-  </si>
-  <si>
-    <t>igazgató</t>
-  </si>
-  <si>
-    <t>technikus</t>
-  </si>
-  <si>
-    <t>portás</t>
-  </si>
-  <si>
-    <t>úszás</t>
-  </si>
-  <si>
-    <t>sör</t>
-  </si>
-  <si>
-    <t>bor</t>
-  </si>
-  <si>
-    <t>pálinka</t>
-  </si>
-  <si>
-    <t>gyümölcslé</t>
-  </si>
-  <si>
-    <t>koktél</t>
-  </si>
-  <si>
-    <t>gin</t>
-  </si>
-  <si>
-    <t>whisky</t>
-  </si>
-  <si>
-    <t>szörp</t>
-  </si>
-  <si>
-    <t>vodka</t>
-  </si>
-  <si>
-    <t>tej</t>
-  </si>
-  <si>
-    <t>kóla</t>
-  </si>
-  <si>
-    <t>víz</t>
-  </si>
-  <si>
-    <t>kakaó</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>mojito</t>
-  </si>
-  <si>
-    <t>Adidas</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>Vans</t>
-  </si>
-  <si>
-    <t>Ombre</t>
-  </si>
-  <si>
-    <t>Armani</t>
-  </si>
-  <si>
-    <t>Gucci</t>
-  </si>
-  <si>
-    <t>Fila</t>
-  </si>
-  <si>
-    <t>Calvin Klein</t>
-  </si>
-  <si>
-    <t>fagyi</t>
-  </si>
-  <si>
-    <t>Converse</t>
-  </si>
-  <si>
-    <t>Reebok</t>
-  </si>
-  <si>
-    <t>Everlast</t>
-  </si>
-  <si>
-    <t>Casio</t>
-  </si>
-  <si>
-    <t>Lacoste</t>
-  </si>
-  <si>
-    <t>Mustang</t>
-  </si>
-  <si>
     <t>KEDVENC FOCICSAPAT</t>
   </si>
   <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>United</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
     <t>KEDVENC SPORT</t>
   </si>
   <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Bayern</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Spurs</t>
-  </si>
-  <si>
-    <t>kenyér</t>
-  </si>
-  <si>
-    <t>rigó</t>
-  </si>
-  <si>
-    <t>narancssárga</t>
-  </si>
-  <si>
-    <t>Is on one of the ends</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>állat</t>
-  </si>
-  <si>
-    <t>focicsapat</t>
-  </si>
-  <si>
-    <t>munka</t>
-  </si>
-  <si>
-    <t>név</t>
-  </si>
-  <si>
-    <t>kereset</t>
-  </si>
-  <si>
-    <t>gy/z</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>ital</t>
-  </si>
-  <si>
-    <t>tárgy</t>
-  </si>
-  <si>
-    <t>autó</t>
-  </si>
-  <si>
-    <t>ruha</t>
-  </si>
-  <si>
-    <t>Is in the … position</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>életkor</t>
-  </si>
-  <si>
-    <t>ruhamárka</t>
-  </si>
-  <si>
-    <t>tantárgy</t>
-  </si>
-  <si>
-    <t>focicspat</t>
-  </si>
-  <si>
-    <t>boisz</t>
-  </si>
-  <si>
-    <t>munkahely</t>
-  </si>
-  <si>
-    <t>város</t>
-  </si>
-  <si>
-    <t>gyüm./zöld.</t>
-  </si>
-  <si>
-    <t>étel</t>
-  </si>
-  <si>
-    <t>sültkrumpli</t>
-  </si>
-  <si>
-    <t>kor</t>
-  </si>
-  <si>
-    <t>szín</t>
-  </si>
-  <si>
-    <t>Likes</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>Whisky</t>
-  </si>
-  <si>
-    <t>kocsi</t>
-  </si>
-  <si>
-    <t>Ő</t>
-  </si>
-  <si>
-    <t>Tőle</t>
-  </si>
-  <si>
-    <t>Merre(b/j)</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>VÁROS</t>
-  </si>
-  <si>
-    <t>… is EXACTLY to the l/r from…</t>
-  </si>
-  <si>
-    <t>… is SOMEWHERE to the l/r from…</t>
-  </si>
-  <si>
-    <t>…is somewhere between x and y</t>
-  </si>
-  <si>
-    <t>Közte</t>
-  </si>
-  <si>
-    <t>és</t>
+    <t>KEDVENC ALLAT</t>
+  </si>
+  <si>
+    <t>VAROS</t>
+  </si>
+  <si>
+    <t>RUHAMARKA</t>
+  </si>
+  <si>
+    <t>KEDVENC ISKOLAI TANTARGY</t>
+  </si>
+  <si>
+    <t>VAC</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>ELETKOR</t>
+  </si>
+  <si>
+    <t>KEDVENC ETEL</t>
+  </si>
+  <si>
+    <t>LACI</t>
+  </si>
+  <si>
+    <t>KEDVENC SZIN</t>
+  </si>
+  <si>
+    <t>REKA</t>
+  </si>
+  <si>
+    <t>KEK</t>
+  </si>
+  <si>
+    <t>BEKA</t>
+  </si>
+  <si>
+    <t>NIKE</t>
+  </si>
+  <si>
+    <t>BELA</t>
+  </si>
+  <si>
+    <t>LILA</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>FILA</t>
+  </si>
+  <si>
+    <t>DALMA</t>
+  </si>
+  <si>
+    <t>ALMA</t>
+  </si>
+  <si>
+    <t>KEMIA</t>
+  </si>
+  <si>
+    <t>DANI</t>
+  </si>
+  <si>
+    <t>JANI</t>
+  </si>
+  <si>
+    <t>DELFIN</t>
+  </si>
+  <si>
+    <t>MILAN</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>BANAN</t>
+  </si>
+  <si>
+    <t>ZOLI</t>
+  </si>
+  <si>
+    <t>SKODA</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>ROMA</t>
+  </si>
+  <si>
+    <t>FOCI</t>
+  </si>
+  <si>
+    <t>REEBOK</t>
+  </si>
+  <si>
+    <t>ANGOL</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>KOLA</t>
+  </si>
+  <si>
+    <t>KAKAO</t>
+  </si>
+  <si>
+    <t>DIO</t>
+  </si>
+  <si>
+    <t>ELADO</t>
+  </si>
+  <si>
+    <t>PILLANGO</t>
+  </si>
+  <si>
+    <t>NAPOLI</t>
+  </si>
+  <si>
+    <t>PACAL</t>
+  </si>
+  <si>
+    <t>PALINKA</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>BARNA</t>
+  </si>
+  <si>
+    <t>FEHER</t>
+  </si>
+  <si>
+    <t>OKKER</t>
+  </si>
+  <si>
+    <t>BIBOR</t>
+  </si>
+  <si>
+    <t>FERRARI</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>RIGO</t>
+  </si>
+  <si>
+    <t>ROKA</t>
+  </si>
+  <si>
+    <t>BARCELONA</t>
+  </si>
+  <si>
+    <t>ROGBI</t>
+  </si>
+  <si>
+    <t>ROPLABDA</t>
+  </si>
+  <si>
+    <t>AEROBIK</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>DEBRECEN</t>
+  </si>
+  <si>
+    <t>ARMANI</t>
+  </si>
+  <si>
+    <t>OMBRE</t>
+  </si>
+  <si>
+    <t>BOR</t>
+  </si>
+  <si>
+    <t>BARACK</t>
+  </si>
+  <si>
+    <t>PAPRIKA</t>
+  </si>
+  <si>
+    <t>BROKKOLI</t>
+  </si>
+  <si>
+    <t>IRODALOM</t>
+  </si>
+  <si>
+    <t>RENDOR</t>
+  </si>
+  <si>
+    <t>IRO</t>
+  </si>
+  <si>
+    <t>MERNOK</t>
+  </si>
+  <si>
+    <t>BIRO</t>
+  </si>
+  <si>
+    <t>ANDRAS</t>
+  </si>
+  <si>
+    <t>ZSOFI</t>
+  </si>
+  <si>
+    <t>SARGA</t>
+  </si>
+  <si>
+    <t>NARANCSSARGA</t>
+  </si>
+  <si>
+    <t>PIROS</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>PORSCHE</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>KECSKE</t>
+  </si>
+  <si>
+    <t>MACSKA</t>
+  </si>
+  <si>
+    <t>FARKAS</t>
+  </si>
+  <si>
+    <t>CHELSEA</t>
+  </si>
+  <si>
+    <t>KOSAR</t>
+  </si>
+  <si>
+    <t>MISKOLC</t>
+  </si>
+  <si>
+    <t>PECS</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
+  </si>
+  <si>
+    <t>VANS</t>
+  </si>
+  <si>
+    <t>CASIO</t>
+  </si>
+  <si>
+    <t>LECSO</t>
+  </si>
+  <si>
+    <t>SOR</t>
+  </si>
+  <si>
+    <t>PARADICSOM</t>
+  </si>
+  <si>
+    <t>NARANCS</t>
+  </si>
+  <si>
+    <t>GIZI</t>
+  </si>
+  <si>
+    <t>JOZSI</t>
+  </si>
+  <si>
+    <t>ZOLD</t>
+  </si>
+  <si>
+    <t>ROZSASZIN</t>
+  </si>
+  <si>
+    <t>MAZDA</t>
+  </si>
+  <si>
+    <t>OROSZLAN</t>
+  </si>
+  <si>
+    <t>SZAMAR</t>
+  </si>
+  <si>
+    <t>FALMASZAS</t>
+  </si>
+  <si>
+    <t>SZOLNOK</t>
+  </si>
+  <si>
+    <t>VESZPREM</t>
+  </si>
+  <si>
+    <t>SZEGED</t>
+  </si>
+  <si>
+    <t>PIZZA</t>
+  </si>
+  <si>
+    <t>FOZELEK</t>
+  </si>
+  <si>
+    <t>SZORP</t>
+  </si>
+  <si>
+    <t>RIBIZLI</t>
+  </si>
+  <si>
+    <t>SZOLO</t>
+  </si>
+  <si>
+    <t>FIZIKA</t>
+  </si>
+  <si>
+    <t>BIOSZ</t>
+  </si>
+  <si>
+    <t>FILOZOFIA</t>
+  </si>
+  <si>
+    <t>OLASZ</t>
+  </si>
+  <si>
+    <t>OROSZ</t>
+  </si>
+  <si>
+    <t>PETI</t>
+  </si>
+  <si>
+    <t>PETRA</t>
+  </si>
+  <si>
+    <t>ESZTER</t>
+  </si>
+  <si>
+    <t>FEKETE</t>
+  </si>
+  <si>
+    <t>MAGENTA</t>
+  </si>
+  <si>
+    <t>TIGRIS</t>
+  </si>
+  <si>
+    <t>TEKNOS</t>
+  </si>
+  <si>
+    <t>TENGERIMALAC</t>
+  </si>
+  <si>
+    <t>INTER</t>
+  </si>
+  <si>
+    <t>UNITED</t>
+  </si>
+  <si>
+    <t>GOKART</t>
+  </si>
+  <si>
+    <t>KARATE</t>
+  </si>
+  <si>
+    <t>IJASZAT</t>
+  </si>
+  <si>
+    <t>ESZTERGOM</t>
+  </si>
+  <si>
+    <t>KECSKEMET</t>
+  </si>
+  <si>
+    <t>LACOSTE</t>
+  </si>
+  <si>
+    <t>SPAGETTI</t>
+  </si>
+  <si>
+    <t>PITE</t>
+  </si>
+  <si>
+    <t>PALACSINTA</t>
+  </si>
+  <si>
+    <t>KOKTEL</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>TEJ</t>
+  </si>
+  <si>
+    <t>MOJITO</t>
+  </si>
+  <si>
+    <t>KORTE</t>
+  </si>
+  <si>
+    <t>KAPOSZTA</t>
+  </si>
+  <si>
+    <t>TORI</t>
+  </si>
+  <si>
+    <t>TESI</t>
+  </si>
+  <si>
+    <t>INFORMATIKA</t>
+  </si>
+  <si>
+    <t>MATEK</t>
+  </si>
+  <si>
+    <t>NEMET</t>
+  </si>
+  <si>
+    <t>TANAR</t>
+  </si>
+  <si>
+    <t>EPITESZ</t>
+  </si>
+  <si>
+    <t>IGAZGATO</t>
+  </si>
+  <si>
+    <t>KATONA</t>
+  </si>
+  <si>
+    <t>PORTAS</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>PEUGEOT</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>SPURS</t>
+  </si>
+  <si>
+    <t>JUDO</t>
+  </si>
+  <si>
+    <t>KUNG-FU</t>
+  </si>
+  <si>
+    <t>FUTSAL</t>
+  </si>
+  <si>
+    <t>FUTAS</t>
+  </si>
+  <si>
+    <t>BUDAPEST</t>
+  </si>
+  <si>
+    <t>PUMA</t>
+  </si>
+  <si>
+    <t>GUCCI</t>
+  </si>
+  <si>
+    <t>MUSTANG</t>
+  </si>
+  <si>
+    <t>RAKOTT KRUMPLI</t>
+  </si>
+  <si>
+    <t>TECHNIKUS</t>
+  </si>
+  <si>
+    <t>USZAS</t>
+  </si>
+  <si>
+    <t>RANTOTT HUS</t>
+  </si>
+  <si>
+    <t>SZURKE</t>
+  </si>
+  <si>
+    <t>SULTKRUMLI</t>
+  </si>
+  <si>
+    <t>SUTI</t>
+  </si>
+  <si>
+    <t>KEDVENC GYUMOLCS/ZOLDSEG</t>
+  </si>
+  <si>
+    <t>TUZOLTO</t>
+  </si>
+  <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>JUVENTUS</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>LOVESZET</t>
+  </si>
+  <si>
+    <t>SZEKESFEHERVAR</t>
+  </si>
+  <si>
+    <t>CALVIN KLEIN</t>
+  </si>
+  <si>
+    <t>EVERLAST</t>
+  </si>
+  <si>
+    <t>CONVERSE</t>
+  </si>
+  <si>
+    <t>HUSLEVES</t>
+  </si>
+  <si>
+    <t>LEKVAR</t>
+  </si>
+  <si>
+    <t>VIZ</t>
+  </si>
+  <si>
+    <t>VODKA</t>
+  </si>
+  <si>
+    <t>SZILVA</t>
+  </si>
+  <si>
+    <t>KOMUVES</t>
+  </si>
+  <si>
+    <t>KIWI</t>
+  </si>
+  <si>
+    <t>ARANY</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>KUTYA</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>LYON</t>
+  </si>
+  <si>
+    <t>BAYERN</t>
+  </si>
+  <si>
+    <t>GYOR</t>
+  </si>
+  <si>
+    <t>NYIREGYHAZA</t>
+  </si>
+  <si>
+    <t>SZOMBATHELY</t>
+  </si>
+  <si>
+    <t>KENYER</t>
+  </si>
+  <si>
+    <t>FAGYI</t>
+  </si>
+  <si>
+    <t>GYUMOLCSLE</t>
+  </si>
+  <si>
+    <t>WHISKY</t>
+  </si>
+  <si>
+    <t>DINNYE</t>
+  </si>
+  <si>
+    <t>SPANYOL</t>
+  </si>
+  <si>
+    <t>NYELVTAN</t>
+  </si>
+  <si>
+    <t>UGYVED</t>
+  </si>
+  <si>
+    <t>NYOMOZO</t>
+  </si>
+  <si>
+    <t>HUSZONEGY</t>
+  </si>
+  <si>
+    <t>HUSZONKETTO</t>
+  </si>
+  <si>
+    <t>HUSZONHAROM</t>
+  </si>
+  <si>
+    <t>HUSZONNEGY</t>
+  </si>
+  <si>
+    <t>HUSZONOT</t>
+  </si>
+  <si>
+    <t>HUSZONHAT</t>
+  </si>
+  <si>
+    <t>HUSZONHET</t>
+  </si>
+  <si>
+    <t>HUSZONNYOLC</t>
+  </si>
+  <si>
+    <t>HUSZONKILENC</t>
+  </si>
+  <si>
+    <t>HARMINC</t>
+  </si>
+  <si>
+    <t>HARMINCEGY</t>
+  </si>
+  <si>
+    <t>HARMINCKETTO</t>
+  </si>
+  <si>
+    <t>HARMINCHAROM</t>
+  </si>
+  <si>
+    <t>HARMINCNEGY</t>
+  </si>
+  <si>
+    <t>HARMINCOT</t>
+  </si>
+  <si>
+    <t>K420K</t>
+  </si>
+  <si>
+    <t>K440K</t>
+  </si>
+  <si>
+    <t>K460K</t>
+  </si>
+  <si>
+    <t>K480K</t>
+  </si>
+  <si>
+    <t>K500K</t>
+  </si>
+  <si>
+    <t>K520K</t>
+  </si>
+  <si>
+    <t>K540K</t>
+  </si>
+  <si>
+    <t>K560K</t>
+  </si>
+  <si>
+    <t>K580K</t>
+  </si>
+  <si>
+    <t>K600K</t>
+  </si>
+  <si>
+    <t>K620K</t>
+  </si>
+  <si>
+    <t>K640K</t>
+  </si>
+  <si>
+    <t>K660K</t>
+  </si>
+  <si>
+    <t>K680K</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>TOLE</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>LIKES</t>
+  </si>
+  <si>
+    <t>KOCSI</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>IS ON ONE OF THE ENDS</t>
+  </si>
+  <si>
+    <t>ALLAT</t>
+  </si>
+  <si>
+    <t>FOCICSAPAT</t>
+  </si>
+  <si>
+    <t>SPORT</t>
+  </si>
+  <si>
+    <t>ITAL</t>
+  </si>
+  <si>
+    <t>IS IN THE … POSITION</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>FOCICSPAT</t>
+  </si>
+  <si>
+    <t>ETEL</t>
+  </si>
+  <si>
+    <t>… IS EXACTLY TO THE L/R FROM…</t>
+  </si>
+  <si>
+    <t>… IS SOMEWHERE TO THE L/R FROM…</t>
+  </si>
+  <si>
+    <t>PROPERTY</t>
+  </si>
+  <si>
+    <t>TARGY</t>
+  </si>
+  <si>
+    <t>TANTARGY</t>
+  </si>
+  <si>
+    <t>RUHA</t>
+  </si>
+  <si>
+    <t>MUNKAHELY</t>
+  </si>
+  <si>
+    <t>SULTKRUMPLI</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>…IS SOMEWHERE BETWEEN X AND Y</t>
+  </si>
+  <si>
+    <t>BOISZ</t>
+  </si>
+  <si>
+    <t>GYUM./ZOLD.</t>
+  </si>
+  <si>
+    <t>SZIN</t>
+  </si>
+  <si>
+    <t>KOZTE</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>K700K</t>
+  </si>
+  <si>
+    <t>MERRE(L/R)</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,6 +1198,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1467,7 +1488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1485,805 +1508,805 @@
     <col min="13" max="13" width="14.21875" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1">
         <v>28</v>
       </c>
-      <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1">
-        <v>31</v>
-      </c>
-      <c r="L3" s="1">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1">
-        <v>24</v>
-      </c>
-      <c r="P3" s="12">
-        <v>23</v>
+      <c r="B3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>147</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="K15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="N15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P15" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="M16" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>185</v>
-      </c>
       <c r="P16" s="17" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2297,31 +2320,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6BD526-6571-4278-B632-6ED2E9884DA5}">
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="D1" s="19"/>
     </row>
@@ -2330,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="D2" s="19"/>
     </row>
@@ -2342,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D3" s="19"/>
     </row>
@@ -2354,10 +2378,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D4" s="19"/>
     </row>
@@ -2366,10 +2390,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D5" s="19"/>
     </row>
@@ -2378,10 +2402,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="D6" s="19"/>
     </row>
@@ -2390,10 +2414,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -2402,10 +2426,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D8" s="19"/>
     </row>
@@ -2414,10 +2438,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D9" s="19"/>
     </row>
@@ -2426,10 +2450,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D10" s="19"/>
     </row>
@@ -2438,10 +2462,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D11" s="19"/>
     </row>
@@ -2450,10 +2474,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -2462,10 +2486,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="D13" s="19"/>
     </row>
@@ -2474,25 +2498,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2500,10 +2524,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="19">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="D16" s="19">
         <v>6</v>
@@ -2514,10 +2538,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D17" s="19">
         <v>12</v>
@@ -2528,10 +2552,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="D18" s="19">
         <v>9</v>
@@ -2542,10 +2566,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D19" s="19">
         <v>5</v>
@@ -2556,10 +2580,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="D20" s="19">
         <v>2</v>
@@ -2570,10 +2594,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="D21" s="19">
         <v>8</v>
@@ -2584,220 +2608,220 @@
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="D22" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="22">
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D24" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="22">
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D25" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="22">
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="22">
         <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D27" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+      <c r="A28" s="22">
         <v>26</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D28" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
+      <c r="A29" s="22">
         <v>27</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D29" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
+      <c r="A30" s="22">
         <v>28</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D30" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+      <c r="A31" s="22">
         <v>29</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="D31" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+      <c r="A32" s="22">
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D32" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
+      <c r="A33" s="22">
         <v>31</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D33" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
+      <c r="A34" s="22">
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D34" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="20">
+      <c r="A35" s="22">
         <v>33</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D35" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="20">
+      <c r="A36" s="22">
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D36" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="20">
+      <c r="A37" s="22">
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D37" s="19">
         <v>1</v>
@@ -2808,10 +2832,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="D38" s="19">
         <v>8</v>
@@ -2822,10 +2846,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="D39" s="19">
         <v>7</v>
@@ -2836,10 +2860,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D40" s="19">
         <v>8</v>
@@ -2850,10 +2874,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C41" s="19">
         <v>28</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="D41" s="19">
         <v>3</v>
@@ -2864,10 +2888,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C42" s="19">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="D42" s="19">
         <v>11</v>
@@ -2878,10 +2902,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C43" s="19">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="D43" s="19">
         <v>8</v>
@@ -2892,10 +2916,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="D44" s="19">
         <v>9</v>
@@ -2906,10 +2930,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D45" s="19">
         <v>11</v>
@@ -2920,10 +2944,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="D46" s="19">
         <v>7</v>
@@ -2934,10 +2958,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D47" s="19">
         <v>14</v>
@@ -2948,10 +2972,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="D48" s="19">
         <v>4</v>
@@ -2962,10 +2986,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="D49" s="19">
         <v>6</v>
@@ -2976,10 +3000,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="D50" s="19">
         <v>8</v>
@@ -2990,10 +3014,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D51" s="19">
         <v>13</v>
@@ -3004,10 +3028,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="D52" s="19">
         <v>9</v>
@@ -3018,10 +3042,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="D53" s="19">
         <v>4</v>
@@ -3032,10 +3056,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="D54" s="19">
         <v>6</v>
@@ -3046,10 +3070,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D55" s="19">
         <v>10</v>
@@ -3060,10 +3084,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="D56" s="19">
         <v>12</v>
@@ -3074,10 +3098,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C57" s="19">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="D57" s="19">
         <v>12</v>
@@ -3088,10 +3112,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D58" s="19">
         <v>7</v>
@@ -3102,10 +3126,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D59" s="19">
         <v>6</v>
@@ -3116,10 +3140,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="D60" s="19">
         <v>6</v>
@@ -3130,10 +3154,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D61" s="19">
         <v>8</v>
@@ -3144,10 +3168,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D62" s="19">
         <v>6</v>
@@ -3158,10 +3182,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="D63" s="19">
         <v>5</v>
@@ -3172,10 +3196,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="D64" s="19">
         <v>2</v>
@@ -3186,10 +3210,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D65" s="19">
         <v>2</v>
@@ -3200,10 +3224,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D66" s="19">
         <v>7</v>
@@ -3214,10 +3238,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="D67" s="19">
         <v>12</v>
@@ -3228,10 +3252,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D68" s="19">
         <v>4</v>
@@ -3242,10 +3266,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D69" s="19">
         <v>13</v>
@@ -3256,10 +3280,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C70" s="19">
-        <v>21</v>
+        <v>256</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="D70" s="19">
         <v>2</v>
@@ -3270,10 +3294,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D71" s="19">
         <v>5</v>
@@ -3284,7 +3308,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>147</v>
@@ -3298,10 +3322,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D73" s="19">
         <v>5</v>
@@ -3309,20 +3333,20 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3330,16 +3354,16 @@
         <v>72</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3347,16 +3371,16 @@
         <v>73</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3364,16 +3388,16 @@
         <v>74</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3381,16 +3405,16 @@
         <v>75</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3398,16 +3422,16 @@
         <v>76</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3415,16 +3439,16 @@
         <v>77</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3432,16 +3456,16 @@
         <v>78</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3449,16 +3473,16 @@
         <v>79</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="19">
-        <v>22</v>
+        <v>256</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3466,16 +3490,16 @@
         <v>80</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3483,16 +3507,16 @@
         <v>81</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3500,16 +3524,16 @@
         <v>82</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3517,16 +3541,16 @@
         <v>83</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3534,16 +3558,16 @@
         <v>84</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3551,16 +3575,16 @@
         <v>85</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3568,16 +3592,16 @@
         <v>86</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3585,16 +3609,16 @@
         <v>87</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3602,16 +3626,16 @@
         <v>88</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F91" s="19">
-        <v>25</v>
+        <v>256</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3619,16 +3643,16 @@
         <v>89</v>
       </c>
       <c r="B92" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="F92" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="F92" s="19" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3636,17 +3660,17 @@
         <v>90</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C93" s="19">
-        <v>25</v>
+        <v>256</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3654,17 +3678,17 @@
         <v>91</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3672,17 +3696,17 @@
         <v>92</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3690,17 +3714,17 @@
         <v>93</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -3708,17 +3732,17 @@
         <v>94</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -3726,17 +3750,17 @@
         <v>95</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -3744,17 +3768,17 @@
         <v>96</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -3762,17 +3786,17 @@
         <v>97</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -3780,17 +3804,17 @@
         <v>98</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -3798,17 +3822,17 @@
         <v>99</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C102" s="19">
-        <v>23</v>
+        <v>256</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -3816,17 +3840,17 @@
         <v>100</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -3834,17 +3858,17 @@
         <v>101</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -3852,17 +3876,17 @@
         <v>102</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -3870,17 +3894,17 @@
         <v>103</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -3888,17 +3912,17 @@
         <v>104</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -3906,17 +3930,17 @@
         <v>105</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
@@ -3929,17 +3953,17 @@
         <v>106</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" s="19">
-        <v>27</v>
+        <v>256</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
@@ -3952,17 +3976,17 @@
         <v>107</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
@@ -3975,17 +3999,17 @@
         <v>108</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
@@ -3998,17 +4022,17 @@
         <v>109</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
@@ -4021,17 +4045,17 @@
         <v>110</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G113" s="19"/>
       <c r="H113" s="19"/>
@@ -4044,17 +4068,17 @@
         <v>111</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
@@ -4067,17 +4091,17 @@
         <v>112</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
@@ -4090,17 +4114,17 @@
         <v>113</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F116" s="19">
-        <v>34</v>
+        <v>256</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
@@ -4113,17 +4137,17 @@
         <v>114</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F117" s="19">
-        <v>32</v>
+        <v>256</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
@@ -4136,17 +4160,17 @@
         <v>115</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
@@ -4159,17 +4183,17 @@
         <v>116</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
@@ -4182,17 +4206,17 @@
         <v>117</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
@@ -4205,17 +4229,17 @@
         <v>118</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
@@ -4228,17 +4252,17 @@
         <v>119</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
@@ -4251,17 +4275,17 @@
         <v>120</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="19">
-        <v>31</v>
+        <v>256</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
@@ -4270,21 +4294,21 @@
       <c r="K123" s="19"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="20">
+      <c r="A124" s="22">
         <v>121</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
@@ -4293,21 +4317,21 @@
       <c r="K124" s="19"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="20">
+      <c r="A125" s="22">
         <v>122</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
@@ -4316,21 +4340,21 @@
       <c r="K125" s="19"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="20">
+      <c r="A126" s="22">
         <v>123</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
@@ -4339,21 +4363,21 @@
       <c r="K126" s="19"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="20">
+      <c r="A127" s="22">
         <v>124</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
@@ -4362,21 +4386,21 @@
       <c r="K127" s="19"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="20">
+      <c r="A128" s="22">
         <v>125</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
@@ -4386,20 +4410,20 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C129" s="22"/>
+        <v>269</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="23"/>
       <c r="D129" s="20"/>
-      <c r="E129" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F129" s="22"/>
+      <c r="E129" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F129" s="23"/>
       <c r="G129" s="20"/>
       <c r="H129" s="20" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
@@ -4410,21 +4434,21 @@
         <v>126</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C130" s="19">
-        <v>23</v>
+        <v>256</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G130" s="19"/>
       <c r="H130" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I130" s="19"/>
       <c r="J130" s="19"/>
@@ -4435,221 +4459,221 @@
         <v>127</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="G131" s="19"/>
       <c r="H131" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="20">
+      <c r="A132" s="22">
         <v>128</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D132" s="19"/>
       <c r="E132" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="G132" s="19"/>
       <c r="H132" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="20">
+      <c r="A133" s="22">
         <v>129</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="G133" s="19"/>
       <c r="H133" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I133" s="19"/>
       <c r="J133" s="19"/>
       <c r="K133" s="19"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="20">
+      <c r="A134" s="22">
         <v>130</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="G134" s="19"/>
       <c r="H134" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
       <c r="K134" s="19"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="20">
+      <c r="A135" s="22">
         <v>131</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G135" s="19"/>
       <c r="H135" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
       <c r="K135" s="19"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="20">
+      <c r="A136" s="22">
         <v>132</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F136" s="19">
-        <v>22</v>
+        <v>256</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="G136" s="19"/>
       <c r="H136" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
       <c r="K136" s="19"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="20">
+      <c r="A137" s="22">
         <v>133</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="G137" s="19"/>
       <c r="H137" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I137" s="19"/>
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="20">
+      <c r="A138" s="22">
         <v>134</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="G138" s="19"/>
       <c r="H138" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I138" s="19"/>
       <c r="J138" s="19"/>
       <c r="K138" s="19"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="20">
+      <c r="A139" s="22">
         <v>135</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="G139" s="19"/>
       <c r="H139" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I139" s="19"/>
       <c r="J139" s="19"/>
@@ -4660,21 +4684,21 @@
         <v>136</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="G140" s="19"/>
       <c r="H140" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I140" s="19"/>
       <c r="J140" s="19"/>
@@ -4685,21 +4709,21 @@
         <v>137</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="G141" s="19"/>
       <c r="H141" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I141" s="19"/>
       <c r="J141" s="19"/>
@@ -4710,21 +4734,21 @@
         <v>138</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="D142" s="19"/>
       <c r="E142" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="G142" s="19"/>
       <c r="H142" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I142" s="19"/>
       <c r="J142" s="19"/>
@@ -4735,21 +4759,21 @@
         <v>139</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D143" s="19"/>
       <c r="E143" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="G143" s="19"/>
       <c r="H143" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I143" s="19"/>
       <c r="J143" s="19"/>
@@ -4760,21 +4784,21 @@
         <v>140</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D144" s="19"/>
       <c r="E144" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="G144" s="19"/>
       <c r="H144" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I144" s="19"/>
       <c r="J144" s="19"/>
@@ -4785,21 +4809,21 @@
         <v>141</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D145" s="19"/>
       <c r="E145" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G145" s="19"/>
       <c r="H145" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I145" s="19"/>
       <c r="J145" s="19"/>
@@ -4810,21 +4834,21 @@
         <v>142</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="D146" s="19"/>
       <c r="E146" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="G146" s="19"/>
       <c r="H146" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
@@ -4835,21 +4859,21 @@
         <v>143</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D147" s="19"/>
       <c r="E147" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="G147" s="19"/>
       <c r="H147" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I147" s="19"/>
       <c r="J147" s="19"/>
@@ -4860,21 +4884,21 @@
         <v>144</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D148" s="19"/>
       <c r="E148" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G148" s="19"/>
       <c r="H148" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I148" s="19"/>
       <c r="J148" s="19"/>
@@ -4885,21 +4909,21 @@
         <v>145</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C149" s="19">
-        <v>27</v>
+        <v>256</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="D149" s="19"/>
       <c r="E149" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="G149" s="19"/>
       <c r="H149" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I149" s="19"/>
       <c r="J149" s="19"/>
@@ -4910,21 +4934,21 @@
         <v>146</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D150" s="19"/>
       <c r="E150" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="G150" s="19"/>
       <c r="H150" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
@@ -4935,21 +4959,21 @@
         <v>147</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D151" s="19"/>
       <c r="E151" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="G151" s="19"/>
       <c r="H151" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I151" s="19"/>
       <c r="J151" s="19"/>
@@ -4960,21 +4984,21 @@
         <v>148</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="D152" s="19"/>
       <c r="E152" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="G152" s="19"/>
       <c r="H152" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
@@ -4985,21 +5009,21 @@
         <v>149</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D153" s="19"/>
       <c r="E153" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="G153" s="19"/>
       <c r="H153" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I153" s="19"/>
       <c r="J153" s="19"/>
@@ -5010,21 +5034,21 @@
         <v>150</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="D154" s="19"/>
       <c r="E154" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G154" s="19"/>
       <c r="H154" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I154" s="19"/>
       <c r="J154" s="19"/>
@@ -5035,21 +5059,21 @@
         <v>151</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D155" s="19"/>
       <c r="E155" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="G155" s="19"/>
       <c r="H155" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I155" s="19"/>
       <c r="J155" s="19"/>
@@ -5060,21 +5084,21 @@
         <v>152</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="G156" s="19"/>
       <c r="H156" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I156" s="19"/>
       <c r="J156" s="19"/>
@@ -5085,21 +5109,21 @@
         <v>153</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="D157" s="19"/>
       <c r="E157" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G157" s="19"/>
       <c r="H157" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
@@ -5110,21 +5134,21 @@
         <v>154</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="D158" s="19"/>
       <c r="E158" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="G158" s="19"/>
       <c r="H158" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I158" s="19"/>
       <c r="J158" s="19"/>
@@ -5135,21 +5159,21 @@
         <v>155</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="D159" s="19"/>
       <c r="E159" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="G159" s="19"/>
       <c r="H159" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I159" s="19"/>
       <c r="J159" s="19"/>
@@ -5160,21 +5184,21 @@
         <v>156</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="G160" s="19"/>
       <c r="H160" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I160" s="19"/>
       <c r="J160" s="19"/>
@@ -5185,21 +5209,21 @@
         <v>157</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="D161" s="19"/>
       <c r="E161" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G161" s="19"/>
       <c r="H161" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I161" s="19"/>
       <c r="J161" s="19"/>
@@ -5210,21 +5234,21 @@
         <v>158</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="D162" s="19"/>
       <c r="E162" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I162" s="19"/>
       <c r="J162" s="19"/>
@@ -5235,21 +5259,21 @@
         <v>159</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="D163" s="19"/>
       <c r="E163" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F163" s="19" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="G163" s="19"/>
       <c r="H163" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I163" s="19"/>
       <c r="J163" s="19"/>
@@ -5260,21 +5284,21 @@
         <v>160</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="G164" s="19"/>
       <c r="H164" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
@@ -5285,21 +5309,21 @@
         <v>161</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="D165" s="19"/>
       <c r="E165" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G165" s="19"/>
       <c r="H165" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I165" s="19"/>
       <c r="J165" s="19"/>
@@ -5310,21 +5334,21 @@
         <v>162</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="D166" s="19"/>
       <c r="E166" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G166" s="19"/>
       <c r="H166" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I166" s="19"/>
       <c r="J166" s="19"/>
@@ -5335,21 +5359,21 @@
         <v>163</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="D167" s="19"/>
       <c r="E167" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="G167" s="19"/>
       <c r="H167" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I167" s="19"/>
       <c r="J167" s="19"/>
@@ -5360,21 +5384,21 @@
         <v>164</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="D168" s="19"/>
       <c r="E168" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="G168" s="19"/>
       <c r="H168" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I168" s="19"/>
       <c r="J168" s="19"/>
@@ -5385,21 +5409,21 @@
         <v>165</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C169" s="19">
-        <v>33</v>
+        <v>256</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="D169" s="19"/>
       <c r="E169" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="G169" s="19"/>
       <c r="H169" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I169" s="19"/>
       <c r="J169" s="19"/>
@@ -5407,20 +5431,20 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B170" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C170" s="22"/>
+      <c r="B170" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C170" s="23"/>
       <c r="D170" s="20"/>
-      <c r="E170" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F170" s="22"/>
+      <c r="E170" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F170" s="23"/>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="I170" s="19"/>
       <c r="J170" s="19"/>
@@ -5431,21 +5455,21 @@
         <v>166</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D171" s="19"/>
       <c r="E171" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F171" s="19" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G171" s="19"/>
       <c r="H171" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I171" s="19"/>
       <c r="J171" s="19"/>
@@ -5456,21 +5480,21 @@
         <v>167</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="D172" s="19"/>
       <c r="E172" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I172" s="19"/>
       <c r="J172" s="19"/>
@@ -5481,21 +5505,21 @@
         <v>168</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="D173" s="19"/>
       <c r="E173" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="G173" s="19"/>
       <c r="H173" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I173" s="19"/>
       <c r="J173" s="19"/>
@@ -5506,21 +5530,21 @@
         <v>169</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D174" s="19"/>
       <c r="E174" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="G174" s="19"/>
       <c r="H174" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I174" s="19"/>
       <c r="J174" s="19"/>
@@ -5531,21 +5555,21 @@
         <v>170</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="D175" s="19"/>
       <c r="E175" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="G175" s="19"/>
       <c r="H175" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I175" s="19"/>
       <c r="J175" s="19"/>
@@ -5556,21 +5580,21 @@
         <v>171</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G176" s="19"/>
       <c r="H176" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I176" s="19"/>
       <c r="J176" s="19"/>
@@ -5581,21 +5605,21 @@
         <v>172</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D177" s="19"/>
       <c r="E177" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G177" s="19"/>
       <c r="H177" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I177" s="19"/>
       <c r="J177" s="19"/>
@@ -5606,21 +5630,21 @@
         <v>173</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D178" s="19"/>
       <c r="E178" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="G178" s="19"/>
       <c r="H178" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I178" s="19"/>
       <c r="J178" s="19"/>
@@ -5631,21 +5655,21 @@
         <v>174</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="D179" s="19"/>
       <c r="E179" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="G179" s="19"/>
       <c r="H179" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
@@ -5656,21 +5680,21 @@
         <v>175</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C180" s="19">
-        <v>31</v>
+        <v>256</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="D180" s="19"/>
       <c r="E180" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="G180" s="19"/>
       <c r="H180" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I180" s="19"/>
       <c r="J180" s="19"/>
@@ -5681,21 +5705,21 @@
         <v>176</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D181" s="19"/>
       <c r="E181" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="G181" s="19"/>
       <c r="H181" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I181" s="19"/>
       <c r="J181" s="19"/>
@@ -5706,21 +5730,21 @@
         <v>177</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D182" s="19"/>
       <c r="E182" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F182" s="19">
-        <v>22</v>
+        <v>256</v>
+      </c>
+      <c r="F182" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="G182" s="19"/>
       <c r="H182" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I182" s="19"/>
       <c r="J182" s="19"/>
@@ -5731,21 +5755,21 @@
         <v>178</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D183" s="19"/>
       <c r="E183" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="G183" s="19"/>
       <c r="H183" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I183" s="19"/>
       <c r="J183" s="19"/>
@@ -5756,21 +5780,21 @@
         <v>179</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G184" s="19"/>
       <c r="H184" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
@@ -5781,21 +5805,21 @@
         <v>180</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="D185" s="19"/>
       <c r="E185" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="G185" s="19"/>
       <c r="H185" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I185" s="19"/>
       <c r="J185" s="19"/>
@@ -5806,21 +5830,21 @@
         <v>181</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="D186" s="19"/>
       <c r="E186" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="G186" s="19"/>
       <c r="H186" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I186" s="19"/>
       <c r="J186" s="19"/>
@@ -5831,21 +5855,21 @@
         <v>182</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D187" s="19"/>
       <c r="E187" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="G187" s="19"/>
       <c r="H187" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I187" s="19"/>
       <c r="J187" s="19"/>
@@ -5856,21 +5880,21 @@
         <v>183</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="D188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="G188" s="19"/>
       <c r="H188" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I188" s="19"/>
       <c r="J188" s="19"/>
@@ -5881,21 +5905,21 @@
         <v>184</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="D189" s="19"/>
       <c r="E189" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="G189" s="19"/>
       <c r="H189" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I189" s="19"/>
       <c r="J189" s="19"/>
@@ -5906,21 +5930,21 @@
         <v>185</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="D190" s="19"/>
       <c r="E190" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="G190" s="19"/>
       <c r="H190" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
@@ -5931,21 +5955,21 @@
         <v>186</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="D191" s="19"/>
       <c r="E191" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="G191" s="19"/>
       <c r="H191" s="19" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
@@ -5956,21 +5980,21 @@
         <v>187</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="D192" s="19"/>
       <c r="E192" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="G192" s="19"/>
       <c r="H192" s="19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -5980,22 +6004,22 @@
       <c r="A193" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B193" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C193" s="22"/>
+      <c r="B193" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C193" s="23"/>
       <c r="D193" s="20"/>
-      <c r="E193" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F193" s="22"/>
+      <c r="E193" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F193" s="23"/>
       <c r="G193" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="H193" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="I193" s="22"/>
+        <v>259</v>
+      </c>
+      <c r="H193" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="I193" s="23"/>
       <c r="J193" s="19"/>
       <c r="K193" s="19"/>
     </row>
@@ -6004,24 +6028,24 @@
         <v>188</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D194" s="19"/>
       <c r="E194" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G194" s="19"/>
       <c r="H194" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="I194" s="19" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="J194" s="19"/>
       <c r="K194" s="19"/>
@@ -6031,24 +6055,24 @@
         <v>189</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D195" s="19"/>
       <c r="E195" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G195" s="19"/>
       <c r="H195" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="I195" s="19" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J195" s="19"/>
       <c r="K195" s="19"/>
@@ -6058,24 +6082,24 @@
         <v>190</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D196" s="19"/>
       <c r="E196" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G196" s="19"/>
       <c r="H196" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I196" s="19" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J196" s="19"/>
       <c r="K196" s="19"/>
@@ -6085,24 +6109,24 @@
         <v>191</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="D197" s="19"/>
       <c r="E197" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F197" s="19" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="G197" s="19"/>
       <c r="H197" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="I197" s="19" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="J197" s="19"/>
       <c r="K197" s="19"/>
@@ -6112,24 +6136,24 @@
         <v>192</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D198" s="19"/>
       <c r="E198" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="F198" s="19" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="G198" s="19"/>
       <c r="H198" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I198" s="19" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="J198" s="19"/>
       <c r="K198" s="19"/>
@@ -6139,24 +6163,24 @@
         <v>193</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="D199" s="19"/>
       <c r="E199" s="19" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I199" s="19" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="J199" s="19"/>
       <c r="K199" s="19"/>
@@ -6166,24 +6190,24 @@
         <v>194</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C200" s="19">
-        <v>30</v>
+        <v>256</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="D200" s="19"/>
       <c r="E200" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F200" s="19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G200" s="19"/>
       <c r="H200" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I200" s="19" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="J200" s="19"/>
       <c r="K200" s="19"/>
@@ -6193,24 +6217,24 @@
         <v>195</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C201" s="19">
-        <v>24</v>
+        <v>256</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="D201" s="19"/>
       <c r="E201" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G201" s="19"/>
       <c r="H201" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="I201" s="19" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="J201" s="19"/>
       <c r="K201" s="19"/>
@@ -6220,24 +6244,24 @@
         <v>196</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D202" s="19"/>
       <c r="E202" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F202" s="19" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="G202" s="19"/>
       <c r="H202" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="I202" s="19" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="J202" s="19"/>
       <c r="K202" s="19"/>
@@ -6247,24 +6271,24 @@
         <v>197</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D203" s="19"/>
       <c r="E203" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F203" s="19" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="G203" s="19"/>
       <c r="H203" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I203" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J203" s="19"/>
       <c r="K203" s="19"/>
@@ -6274,24 +6298,24 @@
         <v>198</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D204" s="19"/>
       <c r="E204" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="G204" s="19"/>
       <c r="H204" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I204" s="19" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J204" s="19"/>
       <c r="K204" s="19"/>
@@ -6301,24 +6325,24 @@
         <v>199</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D205" s="19"/>
       <c r="E205" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F205" s="19" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G205" s="19"/>
       <c r="H205" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I205" s="19" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="J205" s="19"/>
       <c r="K205" s="19"/>
@@ -6328,24 +6352,24 @@
         <v>200</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D206" s="19"/>
       <c r="E206" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F206" s="19">
-        <v>33</v>
+        <v>256</v>
+      </c>
+      <c r="F206" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="G206" s="19"/>
       <c r="H206" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="I206" s="19" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J206" s="19"/>
       <c r="K206" s="19"/>
@@ -6355,24 +6379,24 @@
         <v>201</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="D207" s="19"/>
       <c r="E207" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F207" s="19" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="G207" s="19"/>
       <c r="H207" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I207" s="19" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
@@ -6382,24 +6406,24 @@
         <v>202</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D208" s="19"/>
       <c r="E208" s="19" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F208" s="19" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="G208" s="19"/>
       <c r="H208" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="I208" s="19" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
@@ -6409,24 +6433,24 @@
         <v>203</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D209" s="19"/>
       <c r="E209" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F209" s="19">
-        <v>31</v>
+        <v>256</v>
+      </c>
+      <c r="F209" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="G209" s="19"/>
       <c r="H209" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I209" s="19" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J209" s="19"/>
       <c r="K209" s="19"/>
@@ -6436,24 +6460,24 @@
         <v>204</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D210" s="19"/>
       <c r="E210" s="19" t="s">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G210" s="19"/>
       <c r="H210" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I210" s="19" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J210" s="19"/>
       <c r="K210" s="19"/>
@@ -6463,21 +6487,21 @@
         <v>205</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D211" s="19"/>
       <c r="E211" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F211" s="19">
-        <v>29</v>
+        <v>256</v>
+      </c>
+      <c r="F211" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="G211" s="19"/>
       <c r="H211" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I211" s="19" t="s">
         <v>147</v>
@@ -6490,24 +6514,24 @@
         <v>206</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D212" s="19"/>
       <c r="E212" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F212" s="19" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="G212" s="19"/>
       <c r="H212" s="19" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="I212" s="19" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J212" s="19"/>
       <c r="K212" s="19"/>
@@ -6517,24 +6541,24 @@
         <v>207</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="D213" s="19"/>
       <c r="E213" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F213" s="19" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G213" s="19"/>
       <c r="H213" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I213" s="19" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="J213" s="19"/>
       <c r="K213" s="19"/>
@@ -6544,24 +6568,24 @@
         <v>208</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="D214" s="19"/>
       <c r="E214" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F214" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="G214" s="19"/>
       <c r="H214" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="I214" s="19" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="J214" s="19"/>
       <c r="K214" s="19"/>
@@ -6571,132 +6595,132 @@
         <v>209</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D215" s="19"/>
       <c r="E215" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F215" s="19" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="G215" s="19"/>
       <c r="H215" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="I215" s="19" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="J215" s="19"/>
       <c r="K215" s="19"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216" s="20">
+      <c r="A216" s="22">
         <v>210</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="D216" s="19"/>
       <c r="E216" s="19" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F216" s="19" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="G216" s="19"/>
       <c r="H216" s="19" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I216" s="19" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="J216" s="19"/>
       <c r="K216" s="19"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" s="20">
+      <c r="A217" s="22">
         <v>211</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D217" s="19"/>
       <c r="E217" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="G217" s="19"/>
       <c r="H217" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I217" s="19">
-        <v>35</v>
+        <v>256</v>
+      </c>
+      <c r="I217" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="J217" s="19"/>
       <c r="K217" s="19"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="20">
+      <c r="A218" s="22">
         <v>212</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="D218" s="19"/>
       <c r="E218" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F218" s="19" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="19" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="I218" s="19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J218" s="19"/>
       <c r="K218" s="19"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="20">
+      <c r="A219" s="22">
         <v>213</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D219" s="19"/>
       <c r="E219" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F219" s="19" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="G219" s="19"/>
       <c r="H219" s="19" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="I219" s="19" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>

--- a/GA_POC/GiantPelda.xlsx
+++ b/GA_POC/GiantPelda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Megoldás" sheetId="1" r:id="rId1"/>
     <sheet name="Állítások" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="269">
   <si>
     <t>KERESET</t>
   </si>
@@ -784,72 +784,24 @@
     <t>K680K</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>TOLE</t>
-  </si>
-  <si>
-    <t>KOR</t>
-  </si>
-  <si>
     <t>LIKES</t>
   </si>
   <si>
-    <t>KOCSI</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>IS ON ONE OF THE ENDS</t>
   </si>
   <si>
-    <t>ALLAT</t>
-  </si>
-  <si>
-    <t>FOCICSAPAT</t>
-  </si>
-  <si>
-    <t>SPORT</t>
-  </si>
-  <si>
-    <t>ITAL</t>
-  </si>
-  <si>
     <t>IS IN THE … POSITION</t>
   </si>
   <si>
     <t>POSITION</t>
   </si>
   <si>
-    <t>FOCICSPAT</t>
-  </si>
-  <si>
-    <t>ETEL</t>
-  </si>
-  <si>
     <t>… IS EXACTLY TO THE L/R FROM…</t>
   </si>
   <si>
     <t>… IS SOMEWHERE TO THE L/R FROM…</t>
   </si>
   <si>
-    <t>PROPERTY</t>
-  </si>
-  <si>
-    <t>TARGY</t>
-  </si>
-  <si>
-    <t>TANTARGY</t>
-  </si>
-  <si>
-    <t>RUHA</t>
-  </si>
-  <si>
-    <t>MUNKAHELY</t>
-  </si>
-  <si>
     <t>SULTKRUMPLI</t>
   </si>
   <si>
@@ -860,12 +812,6 @@
   </si>
   <si>
     <t>BOISZ</t>
-  </si>
-  <si>
-    <t>GYUM./ZOLD.</t>
-  </si>
-  <si>
-    <t>SZIN</t>
   </si>
   <si>
     <t>KOZTE</t>
@@ -886,7 +832,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1139,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,6 +1144,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1485,33 +1434,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="11" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
         <v>4</v>
@@ -1559,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +1558,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1608,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1709,7 +1658,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -1759,7 +1708,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1859,7 +1808,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1909,7 +1858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1959,7 +1908,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1922,7 @@
         <v>246</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>252</v>
@@ -2009,7 +1958,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2059,7 +2008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -2109,7 +2058,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -2159,7 +2108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>190</v>
       </c>
@@ -2209,7 +2158,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -2259,7 +2208,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -2309,7 +2258,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2317,4415 +2266,2997 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6BD526-6571-4278-B632-6ED2E9884DA5}">
-  <dimension ref="A1:K385"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194:D219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="19">
+      <c r="C16" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="19">
+      <c r="C17" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="19">
+      <c r="C18" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D19" s="19">
+      <c r="C19" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="19">
+      <c r="C20" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="19">
+        <v>263</v>
+      </c>
+      <c r="C21" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="19">
+      <c r="C22" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="19">
+      <c r="C23" s="19">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="19">
+      <c r="C24" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="19">
+      <c r="C25" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="19">
+      <c r="C26" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="19">
+      <c r="C27" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>26</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="19">
+      <c r="C28" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="19">
+      <c r="C29" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>28</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="19">
+      <c r="C30" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="19">
+      <c r="C31" s="19">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="19">
+      <c r="C32" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>31</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C33" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="19">
+      <c r="C33" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="19">
+      <c r="C34" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>33</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="19">
+      <c r="C35" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>34</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C36" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="19">
+      <c r="C36" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="19">
+      <c r="C37" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>36</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="19">
+      <c r="C38" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>37</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="19">
+      <c r="C39" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>38</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="19">
+        <v>260</v>
+      </c>
+      <c r="C40" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>39</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="19">
+      <c r="C41" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>40</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="19">
+      <c r="C42" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>41</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="19">
+      <c r="C43" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>42</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="19">
+      <c r="C44" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>43</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C45" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="19">
+      <c r="C45" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>44</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D46" s="19">
+      <c r="C46" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>45</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C47" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="19">
+      <c r="C47" s="19">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>46</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="19">
+      <c r="C48" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>47</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="19">
+      <c r="C49" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>48</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="19">
+      <c r="C50" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>49</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C51" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="19">
+      <c r="C51" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>50</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="19">
+      <c r="C52" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>51</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C53" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="19">
+      <c r="C53" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>52</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="19">
+      <c r="C54" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>53</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="19">
+      <c r="C55" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>54</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="19">
+      <c r="C56" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>55</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D57" s="19">
+      <c r="C57" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>56</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C58" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="19">
+      <c r="C58" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>57</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C59" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="19">
+      <c r="C59" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>58</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="19">
+      <c r="C60" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>59</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="19">
+      <c r="C61" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>60</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="19">
+      <c r="C62" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>61</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D63" s="19">
+      <c r="C63" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>62</v>
       </c>
       <c r="B64" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="19">
         <v>2</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D64" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>63</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C65" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D65" s="19">
+      <c r="C65" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>64</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C66" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="19">
+      <c r="C66" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>65</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C67" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="19">
+      <c r="C67" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>66</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="19">
+      <c r="C68" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>67</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D69" s="19">
+      <c r="C69" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>68</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C70" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D70" s="19">
+      <c r="C70" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>69</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="19">
+      <c r="C71" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>70</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C72" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="19">
+      <c r="C72" s="19">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>71</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C73" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="19">
+      <c r="C73" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>72</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F75" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>73</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="19" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>74</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F77" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>75</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F78" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>76</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="F79" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>77</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F80" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>78</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F81" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>79</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F82" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>80</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>81</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>82</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F85" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>83</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F86" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>84</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F87" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>85</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F88" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>86</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F89" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>87</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F90" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>88</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F91" s="19" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>89</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F92" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
         <v>90</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F93" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>91</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F94" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>92</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F95" s="19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
         <v>93</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F96" s="19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>94</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>95</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F98" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>96</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>97</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>98</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>99</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="F102" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>100</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F103" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>101</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F104" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>102</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>103</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F106" s="19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
         <v>104</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F107" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>105</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="D108" s="19"/>
-      <c r="E108" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>214</v>
-      </c>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
       <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="20">
         <v>106</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="D109" s="19"/>
-      <c r="E109" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>121</v>
-      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
       <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>107</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D110" s="19"/>
-      <c r="E110" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>86</v>
-      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>108</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="D111" s="19"/>
-      <c r="E111" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>201</v>
-      </c>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
       <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>109</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D112" s="19"/>
-      <c r="E112" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
       <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>110</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D113" s="19"/>
-      <c r="E113" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
       <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>111</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D114" s="19"/>
-      <c r="E114" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>203</v>
-      </c>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>112</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="D115" s="19"/>
-      <c r="E115" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>172</v>
-      </c>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
       <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>113</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="D116" s="19"/>
-      <c r="E116" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F116" s="19" t="s">
-        <v>238</v>
-      </c>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
       <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>114</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="D117" s="19"/>
-      <c r="E117" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F117" s="19" t="s">
-        <v>236</v>
-      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>115</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D118" s="19"/>
-      <c r="E118" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F118" s="19" t="s">
-        <v>70</v>
-      </c>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
       <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
         <v>116</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D119" s="19"/>
-      <c r="E119" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>55</v>
-      </c>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
       <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>117</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="D120" s="19"/>
-      <c r="E120" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>192</v>
-      </c>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
       <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>118</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D121" s="19"/>
-      <c r="E121" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
       <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>119</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="D122" s="19"/>
-      <c r="E122" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>176</v>
-      </c>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
       <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>120</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="D123" s="19"/>
-      <c r="E123" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
       <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <v>121</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="D124" s="19"/>
-      <c r="E124" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
       <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>122</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D125" s="19"/>
-      <c r="E125" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="F125" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
       <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>123</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="D126" s="19"/>
-      <c r="E126" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F126" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
       <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <v>124</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="D127" s="19"/>
-      <c r="E127" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F127" s="19" t="s">
-        <v>245</v>
-      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
       <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <v>125</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="D128" s="19"/>
-      <c r="E128" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F128" s="19" t="s">
-        <v>250</v>
-      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
       <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>254</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B129" s="23"/>
       <c r="C129" s="23"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F129" s="23"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D129" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>126</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130" s="19" t="s">
         <v>40</v>
       </c>
+      <c r="D130" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
       <c r="G130" s="19"/>
-      <c r="H130" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>127</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F131" s="19" t="s">
         <v>54</v>
       </c>
+      <c r="D131" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>128</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="F132" s="19" t="s">
         <v>84</v>
       </c>
+      <c r="D132" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
       <c r="G132" s="19"/>
-      <c r="H132" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
         <v>129</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="19" t="s">
         <v>252</v>
       </c>
+      <c r="D133" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
       <c r="G133" s="19"/>
-      <c r="H133" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
         <v>130</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F134" s="19" t="s">
         <v>178</v>
       </c>
+      <c r="D134" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
       <c r="G134" s="19"/>
-      <c r="H134" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
         <v>131</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F135" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="D135" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
       <c r="G135" s="19"/>
-      <c r="H135" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
         <v>132</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F136" s="19" t="s">
         <v>226</v>
       </c>
+      <c r="D136" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
       <c r="G136" s="19"/>
-      <c r="H136" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="22">
         <v>133</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F137" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="D137" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
       <c r="G137" s="19"/>
-      <c r="H137" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="22">
         <v>134</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" s="19" t="s">
         <v>136</v>
       </c>
+      <c r="D138" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
       <c r="G138" s="19"/>
-      <c r="H138" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="22">
         <v>135</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F139" s="19" t="s">
         <v>252</v>
       </c>
+      <c r="D139" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
       <c r="G139" s="19"/>
-      <c r="H139" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>136</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F140" s="19" t="s">
         <v>213</v>
       </c>
+      <c r="D140" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
       <c r="G140" s="19"/>
-      <c r="H140" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>137</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F141" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="D141" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
       <c r="G141" s="19"/>
-      <c r="H141" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
         <v>138</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F142" s="19" t="s">
         <v>124</v>
       </c>
+      <c r="D142" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
       <c r="G142" s="19"/>
-      <c r="H142" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
         <v>139</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F143" s="19" t="s">
         <v>136</v>
       </c>
+      <c r="D143" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
       <c r="G143" s="19"/>
-      <c r="H143" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
         <v>140</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F144" s="19" t="s">
         <v>182</v>
       </c>
+      <c r="D144" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
         <v>141</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F145" s="19" t="s">
         <v>212</v>
       </c>
+      <c r="D145" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
       <c r="G145" s="19"/>
-      <c r="H145" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>142</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F146" s="19" t="s">
         <v>244</v>
       </c>
+      <c r="D146" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
       <c r="G146" s="19"/>
-      <c r="H146" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>143</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F147" s="19" t="s">
         <v>66</v>
       </c>
+      <c r="D147" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
       <c r="G147" s="19"/>
-      <c r="H147" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
         <v>144</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F148" s="19" t="s">
         <v>120</v>
       </c>
+      <c r="D148" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
       <c r="G148" s="19"/>
-      <c r="H148" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
         <v>145</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F149" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="D149" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
       <c r="G149" s="19"/>
-      <c r="H149" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>146</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F150" s="19" t="s">
         <v>115</v>
       </c>
+      <c r="D150" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
       <c r="G150" s="19"/>
-      <c r="H150" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
         <v>147</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F151" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="D151" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
       <c r="G151" s="19"/>
-      <c r="H151" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
         <v>148</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F152" s="19" t="s">
         <v>118</v>
       </c>
+      <c r="D152" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
       <c r="G152" s="19"/>
-      <c r="H152" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>149</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F153" s="19" t="s">
         <v>187</v>
       </c>
+      <c r="D153" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
       <c r="G153" s="19"/>
-      <c r="H153" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>150</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F154" s="19" t="s">
         <v>216</v>
       </c>
+      <c r="D154" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
       <c r="G154" s="19"/>
-      <c r="H154" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>151</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F155" s="19" t="s">
         <v>103</v>
       </c>
+      <c r="D155" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
       <c r="G155" s="19"/>
-      <c r="H155" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>152</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F156" s="19" t="s">
         <v>182</v>
       </c>
+      <c r="D156" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
       <c r="G156" s="19"/>
-      <c r="H156" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
         <v>153</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F157" s="19" t="s">
         <v>102</v>
       </c>
+      <c r="D157" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
       <c r="G157" s="19"/>
-      <c r="H157" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
         <v>154</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F158" s="19" t="s">
         <v>179</v>
       </c>
+      <c r="D158" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
       <c r="G158" s="19"/>
-      <c r="H158" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
         <v>155</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F159" s="19" t="s">
         <v>125</v>
       </c>
+      <c r="D159" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
       <c r="G159" s="19"/>
-      <c r="H159" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>156</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="19" t="s">
         <v>244</v>
       </c>
+      <c r="D160" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
       <c r="G160" s="19"/>
-      <c r="H160" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>157</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F161" s="19" t="s">
         <v>216</v>
       </c>
+      <c r="D161" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
       <c r="G161" s="19"/>
-      <c r="H161" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>158</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F162" s="19" t="s">
         <v>48</v>
       </c>
+      <c r="D162" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
       <c r="G162" s="19"/>
-      <c r="H162" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
         <v>159</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F163" s="19" t="s">
         <v>122</v>
       </c>
+      <c r="D163" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
       <c r="G163" s="19"/>
-      <c r="H163" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
         <v>160</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F164" s="19" t="s">
         <v>219</v>
       </c>
+      <c r="D164" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
       <c r="G164" s="19"/>
-      <c r="H164" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>161</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F165" s="19" t="s">
         <v>191</v>
       </c>
+      <c r="D165" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
       <c r="G165" s="19"/>
-      <c r="H165" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>162</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F166" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="D166" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
       <c r="G166" s="19"/>
-      <c r="H166" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
         <v>163</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F167" s="19" t="s">
         <v>181</v>
       </c>
+      <c r="D167" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
       <c r="G167" s="19"/>
-      <c r="H167" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
         <v>164</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F168" s="19" t="s">
         <v>47</v>
       </c>
+      <c r="D168" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
       <c r="G168" s="19"/>
-      <c r="H168" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
         <v>165</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F169" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="D169" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
       <c r="G169" s="19"/>
-      <c r="H169" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="19"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B170" s="23" t="s">
-        <v>254</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B170" s="23"/>
       <c r="C170" s="23"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F170" s="23"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="19"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D170" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
         <v>166</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F171" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="D171" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
       <c r="G171" s="19"/>
-      <c r="H171" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="19"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
         <v>167</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F172" s="19" t="s">
         <v>213</v>
       </c>
+      <c r="D172" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="19"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
         <v>168</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F173" s="19" t="s">
         <v>136</v>
       </c>
+      <c r="D173" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>169</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F174" s="19" t="s">
         <v>76</v>
       </c>
+      <c r="D174" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="19"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>170</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F175" s="19" t="s">
         <v>252</v>
       </c>
+      <c r="D175" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
       <c r="G175" s="19"/>
-      <c r="H175" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="19"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
         <v>171</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F176" s="19" t="s">
         <v>50</v>
       </c>
+      <c r="D176" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
       <c r="G176" s="19"/>
-      <c r="H176" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-      <c r="K176" s="19"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
         <v>172</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F177" s="19" t="s">
         <v>33</v>
       </c>
+      <c r="D177" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
       <c r="G177" s="19"/>
-      <c r="H177" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>173</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F178" s="19" t="s">
         <v>194</v>
       </c>
+      <c r="D178" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
       <c r="G178" s="19"/>
-      <c r="H178" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>174</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F179" s="19" t="s">
         <v>161</v>
       </c>
+      <c r="D179" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
       <c r="G179" s="19"/>
-      <c r="H179" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>175</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="F180" s="19" t="s">
         <v>154</v>
       </c>
+      <c r="D180" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
       <c r="G180" s="19"/>
-      <c r="H180" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="19"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>176</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F181" s="19" t="s">
         <v>198</v>
       </c>
+      <c r="D181" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
       <c r="G181" s="19"/>
-      <c r="H181" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>177</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F182" s="19" t="s">
         <v>226</v>
       </c>
+      <c r="D182" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
       <c r="G182" s="19"/>
-      <c r="H182" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="19"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>178</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F183" s="19" t="s">
         <v>163</v>
       </c>
+      <c r="D183" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
       <c r="G183" s="19"/>
-      <c r="H183" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="19"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>179</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F184" s="19" t="s">
         <v>210</v>
       </c>
+      <c r="D184" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
       <c r="G184" s="19"/>
-      <c r="H184" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="19"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>180</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F185" s="19" t="s">
         <v>35</v>
       </c>
+      <c r="D185" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
       <c r="G185" s="19"/>
-      <c r="H185" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="19"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>181</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F186" s="19" t="s">
         <v>177</v>
       </c>
+      <c r="D186" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
       <c r="G186" s="19"/>
-      <c r="H186" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="19"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>182</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F187" s="19" t="s">
         <v>122</v>
       </c>
+      <c r="D187" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
       <c r="G187" s="19"/>
-      <c r="H187" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="19"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>183</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F188" s="19" t="s">
         <v>76</v>
       </c>
+      <c r="D188" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
       <c r="G188" s="19"/>
-      <c r="H188" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="19"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>184</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F189" s="19" t="s">
         <v>187</v>
       </c>
+      <c r="D189" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
       <c r="G189" s="19"/>
-      <c r="H189" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>185</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F190" s="19" t="s">
         <v>172</v>
       </c>
+      <c r="D190" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
       <c r="G190" s="19"/>
-      <c r="H190" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="19"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>186</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F191" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="D191" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
       <c r="G191" s="19"/>
-      <c r="H191" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>187</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F192" s="19" t="s">
         <v>53</v>
       </c>
+      <c r="D192" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
       <c r="G192" s="19"/>
-      <c r="H192" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="19"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B193" s="23" t="s">
-        <v>254</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B193" s="23"/>
       <c r="C193" s="23"/>
-      <c r="D193" s="20"/>
-      <c r="E193" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F193" s="23"/>
-      <c r="G193" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="H193" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="I193" s="23"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D193" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E193" s="24"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>188</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F194" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I194" s="19" t="s">
+      <c r="D194" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>189</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F195" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="I195" s="19" t="s">
+      <c r="D195" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J195" s="19"/>
-      <c r="K195" s="19"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
         <v>190</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F196" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="I196" s="19" t="s">
+      <c r="D196" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J196" s="19"/>
-      <c r="K196" s="19"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
         <v>191</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F197" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="I197" s="19" t="s">
+      <c r="D197" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J197" s="19"/>
-      <c r="K197" s="19"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
         <v>192</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F198" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I198" s="19" t="s">
+      <c r="D198" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E198" s="19"/>
+      <c r="F198" s="19"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>193</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F199" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I199" s="19" t="s">
+      <c r="D199" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
         <v>194</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F200" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I200" s="19" t="s">
+      <c r="D200" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J200" s="19"/>
-      <c r="K200" s="19"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
         <v>195</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F201" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G201" s="19"/>
-      <c r="H201" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I201" s="19" t="s">
+      <c r="D201" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J201" s="19"/>
-      <c r="K201" s="19"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
         <v>196</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="F202" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G202" s="19"/>
-      <c r="H202" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I202" s="19" t="s">
+      <c r="D202" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="J202" s="19"/>
-      <c r="K202" s="19"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>197</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F203" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I203" s="19" t="s">
+      <c r="D203" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="J203" s="19"/>
-      <c r="K203" s="19"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
         <v>198</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F204" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="G204" s="19"/>
-      <c r="H204" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I204" s="19" t="s">
+      <c r="D204" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="J204" s="19"/>
-      <c r="K204" s="19"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>199</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F205" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G205" s="19"/>
-      <c r="H205" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I205" s="19" t="s">
+      <c r="D205" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
         <v>200</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F206" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I206" s="19" t="s">
+      <c r="D206" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J206" s="19"/>
-      <c r="K206" s="19"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
         <v>201</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F207" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I207" s="19" t="s">
+      <c r="D207" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J207" s="19"/>
-      <c r="K207" s="19"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>202</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="F208" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G208" s="19"/>
-      <c r="H208" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="I208" s="19" t="s">
+      <c r="D208" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J208" s="19"/>
-      <c r="K208" s="19"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>203</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F209" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="G209" s="19"/>
-      <c r="H209" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="I209" s="19" t="s">
+      <c r="D209" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J209" s="19"/>
-      <c r="K209" s="19"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>204</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D210" s="19"/>
-      <c r="E210" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F210" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G210" s="19"/>
-      <c r="H210" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I210" s="19" t="s">
+      <c r="D210" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J210" s="19"/>
-      <c r="K210" s="19"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E210" s="19"/>
+      <c r="F210" s="19"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>205</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F211" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="G211" s="19"/>
-      <c r="H211" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="I211" s="19" t="s">
+      <c r="D211" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>206</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F212" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="I212" s="19" t="s">
+      <c r="D212" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J212" s="19"/>
-      <c r="K212" s="19"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>207</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F213" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G213" s="19"/>
-      <c r="H213" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I213" s="19" t="s">
+      <c r="D213" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="J213" s="19"/>
-      <c r="K213" s="19"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>208</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D214" s="19"/>
-      <c r="E214" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F214" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G214" s="19"/>
-      <c r="H214" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="I214" s="19" t="s">
+      <c r="D214" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
         <v>209</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F215" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G215" s="19"/>
-      <c r="H215" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="I215" s="19" t="s">
+      <c r="D215" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="J215" s="19"/>
-      <c r="K215" s="19"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E215" s="19"/>
+      <c r="F215" s="19"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="22">
         <v>210</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="F216" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="G216" s="19"/>
-      <c r="H216" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I216" s="19" t="s">
+      <c r="D216" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="J216" s="19"/>
-      <c r="K216" s="19"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="22">
         <v>211</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F217" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G217" s="19"/>
-      <c r="H217" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="I217" s="19" t="s">
+      <c r="D217" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="J217" s="19"/>
-      <c r="K217" s="19"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="22">
         <v>212</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F218" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G218" s="19"/>
-      <c r="H218" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I218" s="19" t="s">
+      <c r="D218" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="J218" s="19"/>
-      <c r="K218" s="19"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E218" s="19"/>
+      <c r="F218" s="19"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="22">
         <v>213</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F219" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="I219" s="19" t="s">
+      <c r="D219" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J219" s="19"/>
-      <c r="K219" s="19"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -6733,12 +5264,8 @@
       <c r="E220" s="19"/>
       <c r="F220" s="19"/>
       <c r="G220" s="19"/>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="19"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -6746,12 +5273,8 @@
       <c r="E221" s="19"/>
       <c r="F221" s="19"/>
       <c r="G221" s="19"/>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="19"/>
-      <c r="K221" s="19"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -6759,12 +5282,8 @@
       <c r="E222" s="19"/>
       <c r="F222" s="19"/>
       <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="19"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -6772,12 +5291,8 @@
       <c r="E223" s="19"/>
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="19"/>
-      <c r="K223" s="19"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="20"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -6786,11 +5301,8 @@
       <c r="F224" s="19"/>
       <c r="G224" s="19"/>
       <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="19"/>
-      <c r="K224" s="19"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -6799,11 +5311,8 @@
       <c r="F225" s="19"/>
       <c r="G225" s="19"/>
       <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="19"/>
-      <c r="K225" s="19"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -6812,11 +5321,8 @@
       <c r="F226" s="19"/>
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -6825,11 +5331,8 @@
       <c r="F227" s="19"/>
       <c r="G227" s="19"/>
       <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="19"/>
-      <c r="K227" s="19"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -6838,11 +5341,8 @@
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
       <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="19"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -6851,11 +5351,8 @@
       <c r="F229" s="19"/>
       <c r="G229" s="19"/>
       <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="19"/>
-      <c r="K229" s="19"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="20"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -6864,11 +5361,8 @@
       <c r="F230" s="19"/>
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="19"/>
-      <c r="K230" s="19"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -6877,11 +5371,8 @@
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
       <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="19"/>
-      <c r="K231" s="19"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="20"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -6890,11 +5381,8 @@
       <c r="F232" s="19"/>
       <c r="G232" s="19"/>
       <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="19"/>
-      <c r="K232" s="19"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="20"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -6903,11 +5391,8 @@
       <c r="F233" s="19"/>
       <c r="G233" s="19"/>
       <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="19"/>
-      <c r="K233" s="19"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="20"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -6916,11 +5401,8 @@
       <c r="F234" s="19"/>
       <c r="G234" s="19"/>
       <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="19"/>
-      <c r="K234" s="19"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -6929,11 +5411,8 @@
       <c r="F235" s="19"/>
       <c r="G235" s="19"/>
       <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="19"/>
-      <c r="K235" s="19"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -6942,11 +5421,8 @@
       <c r="F236" s="19"/>
       <c r="G236" s="19"/>
       <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="19"/>
-      <c r="K236" s="19"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -6955,11 +5431,8 @@
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
       <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="19"/>
-      <c r="K237" s="19"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -6968,11 +5441,8 @@
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="19"/>
-      <c r="K238" s="19"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -6981,11 +5451,8 @@
       <c r="F239" s="19"/>
       <c r="G239" s="19"/>
       <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="19"/>
-      <c r="K239" s="19"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -6994,11 +5461,8 @@
       <c r="F240" s="19"/>
       <c r="G240" s="19"/>
       <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="19"/>
-      <c r="K240" s="19"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -7007,11 +5471,8 @@
       <c r="F241" s="19"/>
       <c r="G241" s="19"/>
       <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="19"/>
-      <c r="K241" s="19"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -7020,11 +5481,8 @@
       <c r="F242" s="19"/>
       <c r="G242" s="19"/>
       <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="19"/>
-      <c r="K242" s="19"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -7033,11 +5491,8 @@
       <c r="F243" s="19"/>
       <c r="G243" s="19"/>
       <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="19"/>
-      <c r="K243" s="19"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -7046,11 +5501,8 @@
       <c r="F244" s="19"/>
       <c r="G244" s="19"/>
       <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="19"/>
-      <c r="K244" s="19"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -7059,11 +5511,8 @@
       <c r="F245" s="19"/>
       <c r="G245" s="19"/>
       <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="19"/>
-      <c r="K245" s="19"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -7072,11 +5521,8 @@
       <c r="F246" s="19"/>
       <c r="G246" s="19"/>
       <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="19"/>
-      <c r="K246" s="19"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -7085,11 +5531,8 @@
       <c r="F247" s="19"/>
       <c r="G247" s="19"/>
       <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="19"/>
-      <c r="K247" s="19"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -7098,11 +5541,8 @@
       <c r="F248" s="19"/>
       <c r="G248" s="19"/>
       <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="19"/>
-      <c r="K248" s="19"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -7111,11 +5551,8 @@
       <c r="F249" s="19"/>
       <c r="G249" s="19"/>
       <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="19"/>
-      <c r="K249" s="19"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -7124,11 +5561,8 @@
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
       <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="19"/>
-      <c r="K250" s="19"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -7137,11 +5571,8 @@
       <c r="F251" s="19"/>
       <c r="G251" s="19"/>
       <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="19"/>
-      <c r="K251" s="19"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -7150,11 +5581,8 @@
       <c r="F252" s="19"/>
       <c r="G252" s="19"/>
       <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="19"/>
-      <c r="K252" s="19"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -7163,11 +5591,8 @@
       <c r="F253" s="19"/>
       <c r="G253" s="19"/>
       <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="19"/>
-      <c r="K253" s="19"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -7176,11 +5601,8 @@
       <c r="F254" s="19"/>
       <c r="G254" s="19"/>
       <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="19"/>
-      <c r="K254" s="19"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="20"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -7189,11 +5611,8 @@
       <c r="F255" s="19"/>
       <c r="G255" s="19"/>
       <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="19"/>
-      <c r="K255" s="19"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="20"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -7202,11 +5621,8 @@
       <c r="F256" s="19"/>
       <c r="G256" s="19"/>
       <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="19"/>
-      <c r="K256" s="19"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -7215,11 +5631,8 @@
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
       <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="19"/>
-      <c r="K257" s="19"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="20"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -7228,11 +5641,8 @@
       <c r="F258" s="19"/>
       <c r="G258" s="19"/>
       <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="19"/>
-      <c r="K258" s="19"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -7241,11 +5651,8 @@
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
       <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="19"/>
-      <c r="K259" s="19"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -7254,11 +5661,8 @@
       <c r="F260" s="19"/>
       <c r="G260" s="19"/>
       <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="19"/>
-      <c r="K260" s="19"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -7267,11 +5671,8 @@
       <c r="F261" s="19"/>
       <c r="G261" s="19"/>
       <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="19"/>
-      <c r="K261" s="19"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -7280,11 +5681,8 @@
       <c r="F262" s="19"/>
       <c r="G262" s="19"/>
       <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="19"/>
-      <c r="K262" s="19"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -7293,11 +5691,8 @@
       <c r="F263" s="19"/>
       <c r="G263" s="19"/>
       <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="19"/>
-      <c r="K263" s="19"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -7306,11 +5701,8 @@
       <c r="F264" s="19"/>
       <c r="G264" s="19"/>
       <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="19"/>
-      <c r="K264" s="19"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -7319,11 +5711,8 @@
       <c r="F265" s="19"/>
       <c r="G265" s="19"/>
       <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="19"/>
-      <c r="K265" s="19"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
@@ -7332,11 +5721,8 @@
       <c r="F266" s="19"/>
       <c r="G266" s="19"/>
       <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
-      <c r="J266" s="19"/>
-      <c r="K266" s="19"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -7345,11 +5731,8 @@
       <c r="F267" s="19"/>
       <c r="G267" s="19"/>
       <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="19"/>
-      <c r="K267" s="19"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -7358,11 +5741,8 @@
       <c r="F268" s="19"/>
       <c r="G268" s="19"/>
       <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="19"/>
-      <c r="K268" s="19"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -7371,11 +5751,8 @@
       <c r="F269" s="19"/>
       <c r="G269" s="19"/>
       <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="19"/>
-      <c r="K269" s="19"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -7384,11 +5761,8 @@
       <c r="F270" s="19"/>
       <c r="G270" s="19"/>
       <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
-      <c r="J270" s="19"/>
-      <c r="K270" s="19"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -7397,11 +5771,8 @@
       <c r="F271" s="19"/>
       <c r="G271" s="19"/>
       <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" s="19"/>
-      <c r="K271" s="19"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -7410,11 +5781,8 @@
       <c r="F272" s="19"/>
       <c r="G272" s="19"/>
       <c r="H272" s="19"/>
-      <c r="I272" s="19"/>
-      <c r="J272" s="19"/>
-      <c r="K272" s="19"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -7423,11 +5791,8 @@
       <c r="F273" s="19"/>
       <c r="G273" s="19"/>
       <c r="H273" s="19"/>
-      <c r="I273" s="19"/>
-      <c r="J273" s="19"/>
-      <c r="K273" s="19"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -7436,11 +5801,8 @@
       <c r="F274" s="19"/>
       <c r="G274" s="19"/>
       <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="19"/>
-      <c r="K274" s="19"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -7449,11 +5811,8 @@
       <c r="F275" s="19"/>
       <c r="G275" s="19"/>
       <c r="H275" s="19"/>
-      <c r="I275" s="19"/>
-      <c r="J275" s="19"/>
-      <c r="K275" s="19"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -7462,11 +5821,8 @@
       <c r="F276" s="19"/>
       <c r="G276" s="19"/>
       <c r="H276" s="19"/>
-      <c r="I276" s="19"/>
-      <c r="J276" s="19"/>
-      <c r="K276" s="19"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -7475,11 +5831,8 @@
       <c r="F277" s="19"/>
       <c r="G277" s="19"/>
       <c r="H277" s="19"/>
-      <c r="I277" s="19"/>
-      <c r="J277" s="19"/>
-      <c r="K277" s="19"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -7488,11 +5841,8 @@
       <c r="F278" s="19"/>
       <c r="G278" s="19"/>
       <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
-      <c r="J278" s="19"/>
-      <c r="K278" s="19"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -7501,11 +5851,8 @@
       <c r="F279" s="19"/>
       <c r="G279" s="19"/>
       <c r="H279" s="19"/>
-      <c r="I279" s="19"/>
-      <c r="J279" s="19"/>
-      <c r="K279" s="19"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -7514,11 +5861,8 @@
       <c r="F280" s="19"/>
       <c r="G280" s="19"/>
       <c r="H280" s="19"/>
-      <c r="I280" s="19"/>
-      <c r="J280" s="19"/>
-      <c r="K280" s="19"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -7527,11 +5871,8 @@
       <c r="F281" s="19"/>
       <c r="G281" s="19"/>
       <c r="H281" s="19"/>
-      <c r="I281" s="19"/>
-      <c r="J281" s="19"/>
-      <c r="K281" s="19"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -7540,11 +5881,8 @@
       <c r="F282" s="19"/>
       <c r="G282" s="19"/>
       <c r="H282" s="19"/>
-      <c r="I282" s="19"/>
-      <c r="J282" s="19"/>
-      <c r="K282" s="19"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
@@ -7553,11 +5891,8 @@
       <c r="F283" s="19"/>
       <c r="G283" s="19"/>
       <c r="H283" s="19"/>
-      <c r="I283" s="19"/>
-      <c r="J283" s="19"/>
-      <c r="K283" s="19"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -7566,11 +5901,8 @@
       <c r="F284" s="19"/>
       <c r="G284" s="19"/>
       <c r="H284" s="19"/>
-      <c r="I284" s="19"/>
-      <c r="J284" s="19"/>
-      <c r="K284" s="19"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="20"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -7579,11 +5911,8 @@
       <c r="F285" s="19"/>
       <c r="G285" s="19"/>
       <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
-      <c r="J285" s="19"/>
-      <c r="K285" s="19"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="20"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -7592,11 +5921,8 @@
       <c r="F286" s="19"/>
       <c r="G286" s="19"/>
       <c r="H286" s="19"/>
-      <c r="I286" s="19"/>
-      <c r="J286" s="19"/>
-      <c r="K286" s="19"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -7605,11 +5931,8 @@
       <c r="F287" s="19"/>
       <c r="G287" s="19"/>
       <c r="H287" s="19"/>
-      <c r="I287" s="19"/>
-      <c r="J287" s="19"/>
-      <c r="K287" s="19"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
@@ -7618,11 +5941,8 @@
       <c r="F288" s="19"/>
       <c r="G288" s="19"/>
       <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
-      <c r="J288" s="19"/>
-      <c r="K288" s="19"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="20"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -7631,11 +5951,8 @@
       <c r="F289" s="19"/>
       <c r="G289" s="19"/>
       <c r="H289" s="19"/>
-      <c r="I289" s="19"/>
-      <c r="J289" s="19"/>
-      <c r="K289" s="19"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="20"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -7644,11 +5961,8 @@
       <c r="F290" s="19"/>
       <c r="G290" s="19"/>
       <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
-      <c r="J290" s="19"/>
-      <c r="K290" s="19"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="20"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
@@ -7657,11 +5971,8 @@
       <c r="F291" s="19"/>
       <c r="G291" s="19"/>
       <c r="H291" s="19"/>
-      <c r="I291" s="19"/>
-      <c r="J291" s="19"/>
-      <c r="K291" s="19"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="20"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -7670,11 +5981,8 @@
       <c r="F292" s="19"/>
       <c r="G292" s="19"/>
       <c r="H292" s="19"/>
-      <c r="I292" s="19"/>
-      <c r="J292" s="19"/>
-      <c r="K292" s="19"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="20"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -7683,11 +5991,8 @@
       <c r="F293" s="19"/>
       <c r="G293" s="19"/>
       <c r="H293" s="19"/>
-      <c r="I293" s="19"/>
-      <c r="J293" s="19"/>
-      <c r="K293" s="19"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="20"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -7696,11 +6001,8 @@
       <c r="F294" s="19"/>
       <c r="G294" s="19"/>
       <c r="H294" s="19"/>
-      <c r="I294" s="19"/>
-      <c r="J294" s="19"/>
-      <c r="K294" s="19"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -7709,11 +6011,8 @@
       <c r="F295" s="19"/>
       <c r="G295" s="19"/>
       <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="19"/>
-      <c r="K295" s="19"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="20"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -7722,11 +6021,8 @@
       <c r="F296" s="19"/>
       <c r="G296" s="19"/>
       <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
-      <c r="J296" s="19"/>
-      <c r="K296" s="19"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="20"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -7735,11 +6031,8 @@
       <c r="F297" s="19"/>
       <c r="G297" s="19"/>
       <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="19"/>
-      <c r="K297" s="19"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -7748,11 +6041,8 @@
       <c r="F298" s="19"/>
       <c r="G298" s="19"/>
       <c r="H298" s="19"/>
-      <c r="I298" s="19"/>
-      <c r="J298" s="19"/>
-      <c r="K298" s="19"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="20"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -7761,11 +6051,8 @@
       <c r="F299" s="19"/>
       <c r="G299" s="19"/>
       <c r="H299" s="19"/>
-      <c r="I299" s="19"/>
-      <c r="J299" s="19"/>
-      <c r="K299" s="19"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="20"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -7774,11 +6061,8 @@
       <c r="F300" s="19"/>
       <c r="G300" s="19"/>
       <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="19"/>
-      <c r="K300" s="19"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -7787,11 +6071,8 @@
       <c r="F301" s="19"/>
       <c r="G301" s="19"/>
       <c r="H301" s="19"/>
-      <c r="I301" s="19"/>
-      <c r="J301" s="19"/>
-      <c r="K301" s="19"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="20"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -7800,11 +6081,8 @@
       <c r="F302" s="19"/>
       <c r="G302" s="19"/>
       <c r="H302" s="19"/>
-      <c r="I302" s="19"/>
-      <c r="J302" s="19"/>
-      <c r="K302" s="19"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="20"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -7813,11 +6091,8 @@
       <c r="F303" s="19"/>
       <c r="G303" s="19"/>
       <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
-      <c r="J303" s="19"/>
-      <c r="K303" s="19"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="20"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -7826,11 +6101,8 @@
       <c r="F304" s="19"/>
       <c r="G304" s="19"/>
       <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="19"/>
-      <c r="K304" s="19"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="20"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -7839,11 +6111,8 @@
       <c r="F305" s="19"/>
       <c r="G305" s="19"/>
       <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="19"/>
-      <c r="K305" s="19"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -7852,11 +6121,8 @@
       <c r="F306" s="19"/>
       <c r="G306" s="19"/>
       <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="19"/>
-      <c r="K306" s="19"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -7865,11 +6131,8 @@
       <c r="F307" s="19"/>
       <c r="G307" s="19"/>
       <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
-      <c r="J307" s="19"/>
-      <c r="K307" s="19"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -7878,11 +6141,8 @@
       <c r="F308" s="19"/>
       <c r="G308" s="19"/>
       <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="19"/>
-      <c r="K308" s="19"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -7891,11 +6151,8 @@
       <c r="F309" s="19"/>
       <c r="G309" s="19"/>
       <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="19"/>
-      <c r="K309" s="19"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="20"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -7904,11 +6161,8 @@
       <c r="F310" s="19"/>
       <c r="G310" s="19"/>
       <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="19"/>
-      <c r="K310" s="19"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="20"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -7917,11 +6171,8 @@
       <c r="F311" s="19"/>
       <c r="G311" s="19"/>
       <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="19"/>
-      <c r="K311" s="19"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -7930,11 +6181,8 @@
       <c r="F312" s="19"/>
       <c r="G312" s="19"/>
       <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="19"/>
-      <c r="K312" s="19"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -7943,11 +6191,8 @@
       <c r="F313" s="19"/>
       <c r="G313" s="19"/>
       <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="19"/>
-      <c r="K313" s="19"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="20"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -7956,11 +6201,8 @@
       <c r="F314" s="19"/>
       <c r="G314" s="19"/>
       <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="19"/>
-      <c r="K314" s="19"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -7969,11 +6211,8 @@
       <c r="F315" s="19"/>
       <c r="G315" s="19"/>
       <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="19"/>
-      <c r="K315" s="19"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="20"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -7982,11 +6221,8 @@
       <c r="F316" s="19"/>
       <c r="G316" s="19"/>
       <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="19"/>
-      <c r="K316" s="19"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="20"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -7995,11 +6231,8 @@
       <c r="F317" s="19"/>
       <c r="G317" s="19"/>
       <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="19"/>
-      <c r="K317" s="19"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="20"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -8008,11 +6241,8 @@
       <c r="F318" s="19"/>
       <c r="G318" s="19"/>
       <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="19"/>
-      <c r="K318" s="19"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="20"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -8021,11 +6251,8 @@
       <c r="F319" s="19"/>
       <c r="G319" s="19"/>
       <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="19"/>
-      <c r="K319" s="19"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="20"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -8034,11 +6261,8 @@
       <c r="F320" s="19"/>
       <c r="G320" s="19"/>
       <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
-      <c r="J320" s="19"/>
-      <c r="K320" s="19"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="20"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -8047,11 +6271,8 @@
       <c r="F321" s="19"/>
       <c r="G321" s="19"/>
       <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="19"/>
-      <c r="K321" s="19"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="20"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -8060,11 +6281,8 @@
       <c r="F322" s="19"/>
       <c r="G322" s="19"/>
       <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="19"/>
-      <c r="K322" s="19"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="20"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
@@ -8073,11 +6291,8 @@
       <c r="F323" s="19"/>
       <c r="G323" s="19"/>
       <c r="H323" s="19"/>
-      <c r="I323" s="19"/>
-      <c r="J323" s="19"/>
-      <c r="K323" s="19"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="20"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -8086,11 +6301,8 @@
       <c r="F324" s="19"/>
       <c r="G324" s="19"/>
       <c r="H324" s="19"/>
-      <c r="I324" s="19"/>
-      <c r="J324" s="19"/>
-      <c r="K324" s="19"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="20"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -8099,11 +6311,8 @@
       <c r="F325" s="19"/>
       <c r="G325" s="19"/>
       <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="19"/>
-      <c r="K325" s="19"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="20"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -8112,11 +6321,8 @@
       <c r="F326" s="19"/>
       <c r="G326" s="19"/>
       <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="19"/>
-      <c r="K326" s="19"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -8125,11 +6331,8 @@
       <c r="F327" s="19"/>
       <c r="G327" s="19"/>
       <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
-      <c r="J327" s="19"/>
-      <c r="K327" s="19"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -8138,11 +6341,8 @@
       <c r="F328" s="19"/>
       <c r="G328" s="19"/>
       <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="19"/>
-      <c r="K328" s="19"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="20"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -8151,11 +6351,8 @@
       <c r="F329" s="19"/>
       <c r="G329" s="19"/>
       <c r="H329" s="19"/>
-      <c r="I329" s="19"/>
-      <c r="J329" s="19"/>
-      <c r="K329" s="19"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="20"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -8164,11 +6361,8 @@
       <c r="F330" s="19"/>
       <c r="G330" s="19"/>
       <c r="H330" s="19"/>
-      <c r="I330" s="19"/>
-      <c r="J330" s="19"/>
-      <c r="K330" s="19"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -8177,11 +6371,8 @@
       <c r="F331" s="19"/>
       <c r="G331" s="19"/>
       <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="19"/>
-      <c r="K331" s="19"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="20"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -8190,11 +6381,8 @@
       <c r="F332" s="19"/>
       <c r="G332" s="19"/>
       <c r="H332" s="19"/>
-      <c r="I332" s="19"/>
-      <c r="J332" s="19"/>
-      <c r="K332" s="19"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="20"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -8203,11 +6391,8 @@
       <c r="F333" s="19"/>
       <c r="G333" s="19"/>
       <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="19"/>
-      <c r="K333" s="19"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="20"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -8216,11 +6401,8 @@
       <c r="F334" s="19"/>
       <c r="G334" s="19"/>
       <c r="H334" s="19"/>
-      <c r="I334" s="19"/>
-      <c r="J334" s="19"/>
-      <c r="K334" s="19"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="20"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -8229,11 +6411,8 @@
       <c r="F335" s="19"/>
       <c r="G335" s="19"/>
       <c r="H335" s="19"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="19"/>
-      <c r="K335" s="19"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="20"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -8242,11 +6421,8 @@
       <c r="F336" s="19"/>
       <c r="G336" s="19"/>
       <c r="H336" s="19"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="19"/>
-      <c r="K336" s="19"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="20"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -8255,11 +6431,8 @@
       <c r="F337" s="19"/>
       <c r="G337" s="19"/>
       <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="19"/>
-      <c r="K337" s="19"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="20"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -8268,11 +6441,8 @@
       <c r="F338" s="19"/>
       <c r="G338" s="19"/>
       <c r="H338" s="19"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="19"/>
-      <c r="K338" s="19"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="20"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -8281,11 +6451,8 @@
       <c r="F339" s="19"/>
       <c r="G339" s="19"/>
       <c r="H339" s="19"/>
-      <c r="I339" s="19"/>
-      <c r="J339" s="19"/>
-      <c r="K339" s="19"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="20"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -8294,11 +6461,8 @@
       <c r="F340" s="19"/>
       <c r="G340" s="19"/>
       <c r="H340" s="19"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="19"/>
-      <c r="K340" s="19"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="20"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -8307,11 +6471,8 @@
       <c r="F341" s="19"/>
       <c r="G341" s="19"/>
       <c r="H341" s="19"/>
-      <c r="I341" s="19"/>
-      <c r="J341" s="19"/>
-      <c r="K341" s="19"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="20"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -8320,11 +6481,8 @@
       <c r="F342" s="19"/>
       <c r="G342" s="19"/>
       <c r="H342" s="19"/>
-      <c r="I342" s="19"/>
-      <c r="J342" s="19"/>
-      <c r="K342" s="19"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="20"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -8333,11 +6491,8 @@
       <c r="F343" s="19"/>
       <c r="G343" s="19"/>
       <c r="H343" s="19"/>
-      <c r="I343" s="19"/>
-      <c r="J343" s="19"/>
-      <c r="K343" s="19"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="20"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -8346,11 +6501,8 @@
       <c r="F344" s="19"/>
       <c r="G344" s="19"/>
       <c r="H344" s="19"/>
-      <c r="I344" s="19"/>
-      <c r="J344" s="19"/>
-      <c r="K344" s="19"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="20"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -8359,11 +6511,8 @@
       <c r="F345" s="19"/>
       <c r="G345" s="19"/>
       <c r="H345" s="19"/>
-      <c r="I345" s="19"/>
-      <c r="J345" s="19"/>
-      <c r="K345" s="19"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="20"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
@@ -8372,11 +6521,8 @@
       <c r="F346" s="19"/>
       <c r="G346" s="19"/>
       <c r="H346" s="19"/>
-      <c r="I346" s="19"/>
-      <c r="J346" s="19"/>
-      <c r="K346" s="19"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="20"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -8385,11 +6531,8 @@
       <c r="F347" s="19"/>
       <c r="G347" s="19"/>
       <c r="H347" s="19"/>
-      <c r="I347" s="19"/>
-      <c r="J347" s="19"/>
-      <c r="K347" s="19"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="20"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -8398,11 +6541,8 @@
       <c r="F348" s="19"/>
       <c r="G348" s="19"/>
       <c r="H348" s="19"/>
-      <c r="I348" s="19"/>
-      <c r="J348" s="19"/>
-      <c r="K348" s="19"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="20"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
@@ -8411,11 +6551,8 @@
       <c r="F349" s="19"/>
       <c r="G349" s="19"/>
       <c r="H349" s="19"/>
-      <c r="I349" s="19"/>
-      <c r="J349" s="19"/>
-      <c r="K349" s="19"/>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="20"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -8424,11 +6561,8 @@
       <c r="F350" s="19"/>
       <c r="G350" s="19"/>
       <c r="H350" s="19"/>
-      <c r="I350" s="19"/>
-      <c r="J350" s="19"/>
-      <c r="K350" s="19"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="20"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -8437,11 +6571,8 @@
       <c r="F351" s="19"/>
       <c r="G351" s="19"/>
       <c r="H351" s="19"/>
-      <c r="I351" s="19"/>
-      <c r="J351" s="19"/>
-      <c r="K351" s="19"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="20"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -8450,11 +6581,8 @@
       <c r="F352" s="19"/>
       <c r="G352" s="19"/>
       <c r="H352" s="19"/>
-      <c r="I352" s="19"/>
-      <c r="J352" s="19"/>
-      <c r="K352" s="19"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="20"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -8463,11 +6591,8 @@
       <c r="F353" s="19"/>
       <c r="G353" s="19"/>
       <c r="H353" s="19"/>
-      <c r="I353" s="19"/>
-      <c r="J353" s="19"/>
-      <c r="K353" s="19"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="20"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -8476,11 +6601,8 @@
       <c r="F354" s="19"/>
       <c r="G354" s="19"/>
       <c r="H354" s="19"/>
-      <c r="I354" s="19"/>
-      <c r="J354" s="19"/>
-      <c r="K354" s="19"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="20"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -8489,11 +6611,8 @@
       <c r="F355" s="19"/>
       <c r="G355" s="19"/>
       <c r="H355" s="19"/>
-      <c r="I355" s="19"/>
-      <c r="J355" s="19"/>
-      <c r="K355" s="19"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="20"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -8502,11 +6621,8 @@
       <c r="F356" s="19"/>
       <c r="G356" s="19"/>
       <c r="H356" s="19"/>
-      <c r="I356" s="19"/>
-      <c r="J356" s="19"/>
-      <c r="K356" s="19"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="20"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -8515,11 +6631,8 @@
       <c r="F357" s="19"/>
       <c r="G357" s="19"/>
       <c r="H357" s="19"/>
-      <c r="I357" s="19"/>
-      <c r="J357" s="19"/>
-      <c r="K357" s="19"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="20"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
@@ -8528,11 +6641,8 @@
       <c r="F358" s="19"/>
       <c r="G358" s="19"/>
       <c r="H358" s="19"/>
-      <c r="I358" s="19"/>
-      <c r="J358" s="19"/>
-      <c r="K358" s="19"/>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="20"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -8541,11 +6651,8 @@
       <c r="F359" s="19"/>
       <c r="G359" s="19"/>
       <c r="H359" s="19"/>
-      <c r="I359" s="19"/>
-      <c r="J359" s="19"/>
-      <c r="K359" s="19"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="20"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -8554,11 +6661,8 @@
       <c r="F360" s="19"/>
       <c r="G360" s="19"/>
       <c r="H360" s="19"/>
-      <c r="I360" s="19"/>
-      <c r="J360" s="19"/>
-      <c r="K360" s="19"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="20"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -8567,11 +6671,8 @@
       <c r="F361" s="19"/>
       <c r="G361" s="19"/>
       <c r="H361" s="19"/>
-      <c r="I361" s="19"/>
-      <c r="J361" s="19"/>
-      <c r="K361" s="19"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="20"/>
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
@@ -8580,11 +6681,8 @@
       <c r="F362" s="19"/>
       <c r="G362" s="19"/>
       <c r="H362" s="19"/>
-      <c r="I362" s="19"/>
-      <c r="J362" s="19"/>
-      <c r="K362" s="19"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="20"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -8593,11 +6691,8 @@
       <c r="F363" s="19"/>
       <c r="G363" s="19"/>
       <c r="H363" s="19"/>
-      <c r="I363" s="19"/>
-      <c r="J363" s="19"/>
-      <c r="K363" s="19"/>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="20"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -8606,11 +6701,8 @@
       <c r="F364" s="19"/>
       <c r="G364" s="19"/>
       <c r="H364" s="19"/>
-      <c r="I364" s="19"/>
-      <c r="J364" s="19"/>
-      <c r="K364" s="19"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="20"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
@@ -8619,11 +6711,8 @@
       <c r="F365" s="19"/>
       <c r="G365" s="19"/>
       <c r="H365" s="19"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="19"/>
-      <c r="K365" s="19"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="20"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -8632,11 +6721,8 @@
       <c r="F366" s="19"/>
       <c r="G366" s="19"/>
       <c r="H366" s="19"/>
-      <c r="I366" s="19"/>
-      <c r="J366" s="19"/>
-      <c r="K366" s="19"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="20"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -8645,11 +6731,8 @@
       <c r="F367" s="19"/>
       <c r="G367" s="19"/>
       <c r="H367" s="19"/>
-      <c r="I367" s="19"/>
-      <c r="J367" s="19"/>
-      <c r="K367" s="19"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="20"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -8658,11 +6741,8 @@
       <c r="F368" s="19"/>
       <c r="G368" s="19"/>
       <c r="H368" s="19"/>
-      <c r="I368" s="19"/>
-      <c r="J368" s="19"/>
-      <c r="K368" s="19"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="20"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -8671,11 +6751,8 @@
       <c r="F369" s="19"/>
       <c r="G369" s="19"/>
       <c r="H369" s="19"/>
-      <c r="I369" s="19"/>
-      <c r="J369" s="19"/>
-      <c r="K369" s="19"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="20"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -8684,11 +6761,8 @@
       <c r="F370" s="19"/>
       <c r="G370" s="19"/>
       <c r="H370" s="19"/>
-      <c r="I370" s="19"/>
-      <c r="J370" s="19"/>
-      <c r="K370" s="19"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="20"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -8697,11 +6771,8 @@
       <c r="F371" s="19"/>
       <c r="G371" s="19"/>
       <c r="H371" s="19"/>
-      <c r="I371" s="19"/>
-      <c r="J371" s="19"/>
-      <c r="K371" s="19"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="20"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -8710,11 +6781,8 @@
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
       <c r="H372" s="19"/>
-      <c r="I372" s="19"/>
-      <c r="J372" s="19"/>
-      <c r="K372" s="19"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="20"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
@@ -8723,11 +6791,8 @@
       <c r="F373" s="19"/>
       <c r="G373" s="19"/>
       <c r="H373" s="19"/>
-      <c r="I373" s="19"/>
-      <c r="J373" s="19"/>
-      <c r="K373" s="19"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="20"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -8736,11 +6801,8 @@
       <c r="F374" s="19"/>
       <c r="G374" s="19"/>
       <c r="H374" s="19"/>
-      <c r="I374" s="19"/>
-      <c r="J374" s="19"/>
-      <c r="K374" s="19"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="20"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
@@ -8749,11 +6811,8 @@
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
       <c r="H375" s="19"/>
-      <c r="I375" s="19"/>
-      <c r="J375" s="19"/>
-      <c r="K375" s="19"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="20"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
@@ -8762,11 +6821,8 @@
       <c r="F376" s="19"/>
       <c r="G376" s="19"/>
       <c r="H376" s="19"/>
-      <c r="I376" s="19"/>
-      <c r="J376" s="19"/>
-      <c r="K376" s="19"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="20"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
@@ -8775,11 +6831,8 @@
       <c r="F377" s="19"/>
       <c r="G377" s="19"/>
       <c r="H377" s="19"/>
-      <c r="I377" s="19"/>
-      <c r="J377" s="19"/>
-      <c r="K377" s="19"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="20"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
@@ -8788,11 +6841,8 @@
       <c r="F378" s="19"/>
       <c r="G378" s="19"/>
       <c r="H378" s="19"/>
-      <c r="I378" s="19"/>
-      <c r="J378" s="19"/>
-      <c r="K378" s="19"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="20"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
@@ -8801,11 +6851,8 @@
       <c r="F379" s="19"/>
       <c r="G379" s="19"/>
       <c r="H379" s="19"/>
-      <c r="I379" s="19"/>
-      <c r="J379" s="19"/>
-      <c r="K379" s="19"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="20"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
@@ -8814,11 +6861,8 @@
       <c r="F380" s="19"/>
       <c r="G380" s="19"/>
       <c r="H380" s="19"/>
-      <c r="I380" s="19"/>
-      <c r="J380" s="19"/>
-      <c r="K380" s="19"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="20"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
@@ -8827,11 +6871,8 @@
       <c r="F381" s="19"/>
       <c r="G381" s="19"/>
       <c r="H381" s="19"/>
-      <c r="I381" s="19"/>
-      <c r="J381" s="19"/>
-      <c r="K381" s="19"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="20"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
@@ -8840,11 +6881,8 @@
       <c r="F382" s="19"/>
       <c r="G382" s="19"/>
       <c r="H382" s="19"/>
-      <c r="I382" s="19"/>
-      <c r="J382" s="19"/>
-      <c r="K382" s="19"/>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="20"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
@@ -8853,11 +6891,8 @@
       <c r="F383" s="19"/>
       <c r="G383" s="19"/>
       <c r="H383" s="19"/>
-      <c r="I383" s="19"/>
-      <c r="J383" s="19"/>
-      <c r="K383" s="19"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="20"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
@@ -8866,11 +6901,8 @@
       <c r="F384" s="19"/>
       <c r="G384" s="19"/>
       <c r="H384" s="19"/>
-      <c r="I384" s="19"/>
-      <c r="J384" s="19"/>
-      <c r="K384" s="19"/>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="20"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
@@ -8879,19 +6911,10 @@
       <c r="F385" s="19"/>
       <c r="G385" s="19"/>
       <c r="H385" s="19"/>
-      <c r="I385" s="19"/>
-      <c r="J385" s="19"/>
-      <c r="K385" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="E193:F193"/>
+  <mergeCells count="1">
+    <mergeCell ref="D193:E193"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GA_POC/GiantPelda.xlsx
+++ b/GA_POC/GiantPelda.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBFC2AF-F82E-4562-843E-2196927B0161}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Megoldás" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="269">
   <si>
     <t>KERESET</t>
   </si>
@@ -571,18 +572,12 @@
     <t>MUSTANG</t>
   </si>
   <si>
-    <t>RAKOTT KRUMPLI</t>
-  </si>
-  <si>
     <t>TECHNIKUS</t>
   </si>
   <si>
     <t>USZAS</t>
   </si>
   <si>
-    <t>RANTOTT HUS</t>
-  </si>
-  <si>
     <t>SZURKE</t>
   </si>
   <si>
@@ -613,9 +608,6 @@
     <t>SZEKESFEHERVAR</t>
   </si>
   <si>
-    <t>CALVIN KLEIN</t>
-  </si>
-  <si>
     <t>EVERLAST</t>
   </si>
   <si>
@@ -811,9 +803,6 @@
     <t>…IS SOMEWHERE BETWEEN X AND Y</t>
   </si>
   <si>
-    <t>BOISZ</t>
-  </si>
-  <si>
     <t>KOZTE</t>
   </si>
   <si>
@@ -827,18 +816,38 @@
   </si>
   <si>
     <t>MERRE(L/R)</t>
+  </si>
+  <si>
+    <t>RAKOTTKRUMPLI</t>
+  </si>
+  <si>
+    <t>CALVINKLEIN</t>
+  </si>
+  <si>
+    <t>RANTOTTHUS</t>
+  </si>
+  <si>
+    <t>rigth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,6 +898,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1085,74 +1100,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,33 +1461,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
         <v>4</v>
@@ -1508,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1558,57 +1585,57 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="P3" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1649,16 +1676,16 @@
         <v>139</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -1681,7 +1708,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>97</v>
@@ -1690,7 +1717,7 @@
         <v>51</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>98</v>
@@ -1708,7 +1735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1725,7 +1752,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>73</v>
@@ -1758,27 +1785,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>144</v>
@@ -1787,7 +1814,7 @@
         <v>103</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>38</v>
@@ -1808,7 +1835,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1843,13 +1870,13 @@
         <v>178</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>147</v>
@@ -1858,18 +1885,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>179</v>
@@ -1905,60 +1932,60 @@
         <v>149</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="P10" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1968,8 +1995,8 @@
       <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>197</v>
+      <c r="D11" s="26" t="s">
+        <v>266</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>107</v>
@@ -1996,10 +2023,10 @@
         <v>181</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>182</v>
@@ -2008,7 +2035,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -2018,8 +2045,8 @@
       <c r="C12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>186</v>
+      <c r="D12" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>64</v>
@@ -2028,25 +2055,25 @@
         <v>151</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>152</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>126</v>
@@ -2054,11 +2081,11 @@
       <c r="O12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +2093,7 @@
         <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>58</v>
@@ -2075,7 +2102,7 @@
         <v>83</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>154</v>
@@ -2093,13 +2120,13 @@
         <v>65</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>156</v>
@@ -2108,9 +2135,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>158</v>
@@ -2119,13 +2146,13 @@
         <v>112</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>41</v>
@@ -2155,10 +2182,10 @@
         <v>86</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -2172,7 +2199,7 @@
         <v>161</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>130</v>
@@ -2193,7 +2220,7 @@
         <v>55</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>133</v>
@@ -2208,7 +2235,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -2216,10 +2243,10 @@
         <v>165</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>166</v>
@@ -2231,10 +2258,10 @@
         <v>61</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>89</v>
@@ -2252,13 +2279,13 @@
         <v>168</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2266,33 +2293,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194:D219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -2301,7 +2328,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -2310,7 +2337,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -2319,7 +2346,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2328,16 +2355,16 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2346,7 +2373,7 @@
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2355,7 +2382,7 @@
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -2364,7 +2391,7 @@
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2373,7 +2400,7 @@
       </c>
       <c r="C10" s="19"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -2382,7 +2409,7 @@
       </c>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -2391,7 +2418,7 @@
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -2400,38 +2427,38 @@
       </c>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -2442,7 +2469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -2453,51 +2480,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C20" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="C21" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C22" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -2508,29 +2535,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C24" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>24</v>
       </c>
@@ -2541,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>25</v>
       </c>
@@ -2552,18 +2579,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>26</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2574,7 +2601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>28</v>
       </c>
@@ -2585,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -2596,7 +2623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>30</v>
       </c>
@@ -2607,18 +2634,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>31</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="C33" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>32</v>
       </c>
@@ -2629,7 +2656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>33</v>
       </c>
@@ -2640,7 +2667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>34</v>
       </c>
@@ -2651,7 +2678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>35</v>
       </c>
@@ -2662,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>36</v>
       </c>
@@ -2673,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>37</v>
       </c>
@@ -2684,51 +2711,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>38</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C40" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>39</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C41" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>40</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C42" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>41</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C43" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>42</v>
       </c>
@@ -2739,7 +2766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>43</v>
       </c>
@@ -2750,18 +2777,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>44</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C46" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>45</v>
       </c>
@@ -2772,7 +2799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>46</v>
       </c>
@@ -2783,7 +2810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>47</v>
       </c>
@@ -2794,7 +2821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>48</v>
       </c>
@@ -2805,7 +2832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>49</v>
       </c>
@@ -2816,7 +2843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>50</v>
       </c>
@@ -2827,7 +2854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>51</v>
       </c>
@@ -2838,7 +2865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>52</v>
       </c>
@@ -2849,7 +2876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>53</v>
       </c>
@@ -2860,51 +2887,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>54</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C56" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>55</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C57" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>56</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C58" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>57</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C59" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>58</v>
       </c>
@@ -2915,7 +2942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>59</v>
       </c>
@@ -2926,7 +2953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>60</v>
       </c>
@@ -2937,40 +2964,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>61</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C63" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>62</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C64" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>63</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C65" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>64</v>
       </c>
@@ -2981,7 +3008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>65</v>
       </c>
@@ -2992,18 +3019,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>66</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C68" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>67</v>
       </c>
@@ -3014,18 +3041,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>68</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C70" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>69</v>
       </c>
@@ -3036,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>70</v>
       </c>
@@ -3047,7 +3074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>71</v>
       </c>
@@ -3058,29 +3085,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>72</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>73</v>
       </c>
@@ -3088,10 +3115,10 @@
         <v>131</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>74</v>
       </c>
@@ -3102,7 +3129,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>75</v>
       </c>
@@ -3113,18 +3140,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>76</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>77</v>
       </c>
@@ -3135,7 +3162,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>78</v>
       </c>
@@ -3146,18 +3173,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>79</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>80</v>
       </c>
@@ -3168,7 +3195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>81</v>
       </c>
@@ -3179,7 +3206,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>82</v>
       </c>
@@ -3187,10 +3214,10 @@
         <v>54</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>83</v>
       </c>
@@ -3201,7 +3228,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
         <v>84</v>
       </c>
@@ -3212,40 +3239,40 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
         <v>85</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>86</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>87</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>88</v>
       </c>
@@ -3253,43 +3280,43 @@
         <v>111</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="20">
         <v>89</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="20">
         <v>90</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="20">
         <v>91</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>92</v>
       </c>
@@ -3297,10 +3324,10 @@
         <v>181</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="20">
         <v>93</v>
       </c>
@@ -3311,18 +3338,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>94</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>95</v>
       </c>
@@ -3333,18 +3360,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="20">
         <v>96</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>97</v>
       </c>
@@ -3355,7 +3382,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>98</v>
       </c>
@@ -3363,32 +3390,32 @@
         <v>134</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="20">
         <v>99</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="20">
         <v>100</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="20">
         <v>101</v>
       </c>
@@ -3399,7 +3426,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="20">
         <v>102</v>
       </c>
@@ -3407,21 +3434,21 @@
         <v>178</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="20">
         <v>103</v>
       </c>
       <c r="B106" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C106" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="20">
         <v>104</v>
       </c>
@@ -3432,7 +3459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="20">
         <v>105</v>
       </c>
@@ -3440,19 +3467,19 @@
         <v>71</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="20">
         <v>106</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>121</v>
@@ -3462,7 +3489,7 @@
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="20">
         <v>107</v>
       </c>
@@ -3477,7 +3504,7 @@
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="20">
         <v>108</v>
       </c>
@@ -3485,14 +3512,14 @@
         <v>18</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>109</v>
       </c>
@@ -3507,7 +3534,7 @@
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>110</v>
       </c>
@@ -3522,22 +3549,22 @@
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>111</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>112</v>
       </c>
@@ -3552,7 +3579,7 @@
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>113</v>
       </c>
@@ -3560,14 +3587,14 @@
         <v>163</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="20">
         <v>114</v>
       </c>
@@ -3575,14 +3602,14 @@
         <v>113</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>115</v>
       </c>
@@ -3597,7 +3624,7 @@
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="20">
         <v>116</v>
       </c>
@@ -3612,7 +3639,7 @@
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>117</v>
       </c>
@@ -3620,14 +3647,14 @@
         <v>141</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="20">
         <v>118</v>
       </c>
@@ -3642,7 +3669,7 @@
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="20">
         <v>119</v>
       </c>
@@ -3657,12 +3684,12 @@
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="20">
         <v>120</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>34</v>
@@ -3672,7 +3699,7 @@
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="22">
         <v>121</v>
       </c>
@@ -3687,7 +3714,7 @@
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="22">
         <v>122</v>
       </c>
@@ -3702,12 +3729,12 @@
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="22">
         <v>123</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>78</v>
@@ -3717,7 +3744,7 @@
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="22">
         <v>124</v>
       </c>
@@ -3725,59 +3752,59 @@
         <v>124</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="22">
         <v>125</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
       <c r="D129" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="20">
         <v>126</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="20">
         <v>127</v>
       </c>
@@ -3788,13 +3815,13 @@
         <v>54</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="22">
         <v>128</v>
       </c>
@@ -3805,13 +3832,13 @@
         <v>84</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="22">
         <v>129</v>
       </c>
@@ -3819,16 +3846,16 @@
         <v>92</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="22">
         <v>130</v>
       </c>
@@ -3839,13 +3866,13 @@
         <v>178</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="22">
         <v>131</v>
       </c>
@@ -3856,13 +3883,13 @@
         <v>92</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="22">
         <v>132</v>
       </c>
@@ -3870,16 +3897,16 @@
         <v>66</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="22">
         <v>133</v>
       </c>
@@ -3890,30 +3917,30 @@
         <v>138</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="22">
         <v>134</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="22">
         <v>135</v>
       </c>
@@ -3921,16 +3948,16 @@
         <v>76</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="20">
         <v>136</v>
       </c>
@@ -3938,16 +3965,16 @@
         <v>71</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="20">
         <v>137</v>
       </c>
@@ -3958,13 +3985,13 @@
         <v>140</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="20">
         <v>138</v>
       </c>
@@ -3975,13 +4002,13 @@
         <v>124</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="20">
         <v>139</v>
       </c>
@@ -3992,1417 +4019,1446 @@
         <v>136</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="20">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="24">
         <v>140</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C144" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G144" s="19"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="24">
+        <v>141</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G145" s="19"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="24">
+        <v>142</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G146" s="19"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="24">
+        <v>143</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G147" s="19"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="24">
+        <v>144</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G148" s="19"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="24">
+        <v>145</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G149" s="19"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="24">
+        <v>146</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C150" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="D150" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G150" s="19"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="24">
+        <v>147</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G151" s="19"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="24">
+        <v>148</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G152" s="19"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="24">
+        <v>149</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G153" s="19"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="24">
+        <v>150</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G154" s="19"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="24">
+        <v>151</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G155" s="19"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="24">
+        <v>152</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G156" s="19"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="24">
+        <v>153</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G157" s="19"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="24">
+        <v>154</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G158" s="19"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="24">
+        <v>155</v>
+      </c>
+      <c r="B159" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="20">
-        <v>141</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D145" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="20">
-        <v>142</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="20">
-        <v>143</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D147" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="20">
-        <v>144</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="20">
-        <v>145</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="20">
-        <v>146</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="20">
-        <v>147</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D151" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="20">
-        <v>148</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="20">
-        <v>149</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="20">
-        <v>150</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="20">
-        <v>151</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D155" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="20">
-        <v>152</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C156" s="19" t="s">
+      <c r="C159" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D156" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="20">
-        <v>153</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="20">
-        <v>154</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="20">
-        <v>155</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="D159" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="20">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="24">
         <v>156</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="20">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="24">
         <v>157</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="20">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="24">
         <v>158</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="20">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="24">
         <v>159</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="20">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="24">
         <v>160</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="20">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="24">
         <v>161</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="20">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="24">
         <v>162</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="20">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="24">
         <v>163</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="20">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="24">
         <v>164</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="20">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="24">
         <v>165</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E169" s="19"/>
       <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="20" t="s">
-        <v>268</v>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="24">
+        <v>166</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D170" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="20">
-        <v>166</v>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="24">
+        <v>167</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E171" s="19"/>
       <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="20">
-        <v>167</v>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="24">
+        <v>168</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="20">
-        <v>168</v>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="24">
+        <v>169</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E173" s="19"/>
       <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="20">
-        <v>169</v>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="24">
+        <v>170</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="20">
-        <v>170</v>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="24">
+        <v>171</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="20">
-        <v>171</v>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="24">
+        <v>172</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="20">
-        <v>172</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>33</v>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="24">
+        <v>173</v>
+      </c>
+      <c r="B177" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E177" s="19"/>
       <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="20">
-        <v>173</v>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="24">
+        <v>174</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="20">
-        <v>174</v>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="24">
+        <v>175</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="20">
-        <v>175</v>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="24">
+        <v>176</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="20">
-        <v>176</v>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="24">
+        <v>177</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E181" s="19"/>
       <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="20">
-        <v>177</v>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="24">
+        <v>178</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="20">
-        <v>178</v>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="24">
+        <v>179</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="20">
-        <v>179</v>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="24">
+        <v>180</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="20">
-        <v>180</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D185" s="19" t="s">
-        <v>266</v>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B185" s="23"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="20" t="s">
+        <v>264</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="20">
         <v>181</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="20">
         <v>182</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="20">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="24">
         <v>183</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="20">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="24">
         <v>184</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="20">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="24">
         <v>185</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="20">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="24">
         <v>186</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E191" s="19"/>
       <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="20">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="24">
         <v>187</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E192" s="19"/>
       <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="20" t="s">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="24">
+        <v>188</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D193" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B193" s="23"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E193" s="24"/>
+      <c r="E193" s="19"/>
       <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="20">
-        <v>188</v>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="24">
+        <v>189</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="19"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="20">
-        <v>189</v>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="24">
+        <v>190</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" s="19"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="20">
-        <v>190</v>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="24">
+        <v>191</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="19"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="20">
-        <v>191</v>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="24">
+        <v>192</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="E197" s="19"/>
       <c r="F197" s="19"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="20">
-        <v>192</v>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="24">
+        <v>193</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="19"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="20">
-        <v>193</v>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="24">
+        <v>194</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="E199" s="19"/>
       <c r="F199" s="19"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="20">
-        <v>194</v>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="24">
+        <v>195</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="E200" s="19"/>
       <c r="F200" s="19"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="20">
-        <v>195</v>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="24">
+        <v>196</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="E201" s="19"/>
       <c r="F201" s="19"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="20">
-        <v>196</v>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="24">
+        <v>197</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E202" s="19"/>
       <c r="F202" s="19"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="20">
-        <v>197</v>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="24">
+        <v>198</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="E203" s="19"/>
       <c r="F203" s="19"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="20">
-        <v>198</v>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="24">
+        <v>199</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="D204" s="19" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="E204" s="19"/>
       <c r="F204" s="19"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="20">
-        <v>199</v>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="24">
+        <v>200</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="D205" s="19" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="19"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="20">
-        <v>200</v>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="24">
+        <v>201</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="D206" s="19" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="E206" s="19"/>
       <c r="F206" s="19"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="20">
-        <v>201</v>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="24">
+        <v>202</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" s="19"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="20">
-        <v>202</v>
-      </c>
-      <c r="B208" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C208" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D208" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E208" s="19"/>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B208" s="23"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E208" s="27"/>
       <c r="F208" s="19"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="20">
         <v>203</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>235</v>
+        <v>67</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="19"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="20">
         <v>204</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D210" s="19" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="E210" s="19"/>
       <c r="F210" s="19"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="20">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="24">
         <v>205</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="19"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="20">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="24">
         <v>206</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="19"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="20">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="24">
         <v>207</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="19"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="20">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="24">
         <v>208</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="19"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="20">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="24">
         <v>209</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="19"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="22">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="24">
         <v>210</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="19"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="22">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="24">
         <v>211</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="19"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="22">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="24">
         <v>212</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E218" s="19"/>
       <c r="F218" s="19"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="22">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="24">
         <v>213</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="19"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="24">
+        <v>214</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D220" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="E220" s="19"/>
       <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="24">
+        <v>215</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D221" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="E221" s="19"/>
       <c r="F221" s="19"/>
-      <c r="G221" s="19"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="24">
+        <v>216</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="E222" s="19"/>
       <c r="F222" s="19"/>
-      <c r="G222" s="19"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="24">
+        <v>217</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="E223" s="19"/>
       <c r="F223" s="19"/>
-      <c r="G223" s="19"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="24">
+        <v>218</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D224" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="E224" s="19"/>
       <c r="F224" s="19"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="19"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="24">
+        <v>219</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D225" s="19" t="s">
+        <v>216</v>
+      </c>
       <c r="E225" s="19"/>
       <c r="F225" s="19"/>
-      <c r="G225" s="19"/>
-      <c r="H225" s="19"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
-      <c r="B226" s="19"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="19"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="24">
+        <v>220</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="E226" s="19"/>
       <c r="F226" s="19"/>
-      <c r="G226" s="19"/>
-      <c r="H226" s="19"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
-      <c r="B227" s="19"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="24">
+        <v>221</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D227" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="E227" s="19"/>
       <c r="F227" s="19"/>
-      <c r="G227" s="19"/>
-      <c r="H227" s="19"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="24">
+        <v>222</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D228" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E228" s="19"/>
       <c r="F228" s="19"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="24">
+        <v>223</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="E229" s="19"/>
       <c r="F229" s="19"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="19"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="24">
+        <v>224</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D230" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="E230" s="19"/>
       <c r="F230" s="19"/>
-      <c r="G230" s="19"/>
-      <c r="H230" s="19"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
-      <c r="B231" s="19"/>
-      <c r="C231" s="19"/>
-      <c r="D231" s="19"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="24">
+        <v>225</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D231" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E231" s="19"/>
       <c r="F231" s="19"/>
-      <c r="G231" s="19"/>
-      <c r="H231" s="19"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="24">
+        <v>226</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D232" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="E232" s="19"/>
       <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="24">
+        <v>227</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D233" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="E233" s="19"/>
       <c r="F233" s="19"/>
-      <c r="G233" s="19"/>
-      <c r="H233" s="19"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="19"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="24">
+        <v>228</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="E234" s="19"/>
       <c r="F234" s="19"/>
-      <c r="G234" s="19"/>
-      <c r="H234" s="19"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -5410,9 +5466,8 @@
       <c r="E235" s="19"/>
       <c r="F235" s="19"/>
       <c r="G235" s="19"/>
-      <c r="H235" s="19"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -5420,9 +5475,8 @@
       <c r="E236" s="19"/>
       <c r="F236" s="19"/>
       <c r="G236" s="19"/>
-      <c r="H236" s="19"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -5430,9 +5484,8 @@
       <c r="E237" s="19"/>
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
-      <c r="H237" s="19"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -5440,9 +5493,8 @@
       <c r="E238" s="19"/>
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
-      <c r="H238" s="19"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -5450,9 +5502,8 @@
       <c r="E239" s="19"/>
       <c r="F239" s="19"/>
       <c r="G239" s="19"/>
-      <c r="H239" s="19"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -5460,9 +5511,8 @@
       <c r="E240" s="19"/>
       <c r="F240" s="19"/>
       <c r="G240" s="19"/>
-      <c r="H240" s="19"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -5470,9 +5520,8 @@
       <c r="E241" s="19"/>
       <c r="F241" s="19"/>
       <c r="G241" s="19"/>
-      <c r="H241" s="19"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -5480,9 +5529,8 @@
       <c r="E242" s="19"/>
       <c r="F242" s="19"/>
       <c r="G242" s="19"/>
-      <c r="H242" s="19"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -5490,9 +5538,8 @@
       <c r="E243" s="19"/>
       <c r="F243" s="19"/>
       <c r="G243" s="19"/>
-      <c r="H243" s="19"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -5500,9 +5547,8 @@
       <c r="E244" s="19"/>
       <c r="F244" s="19"/>
       <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -5510,9 +5556,8 @@
       <c r="E245" s="19"/>
       <c r="F245" s="19"/>
       <c r="G245" s="19"/>
-      <c r="H245" s="19"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -5520,9 +5565,8 @@
       <c r="E246" s="19"/>
       <c r="F246" s="19"/>
       <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -5530,9 +5574,8 @@
       <c r="E247" s="19"/>
       <c r="F247" s="19"/>
       <c r="G247" s="19"/>
-      <c r="H247" s="19"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -5540,9 +5583,8 @@
       <c r="E248" s="19"/>
       <c r="F248" s="19"/>
       <c r="G248" s="19"/>
-      <c r="H248" s="19"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -5550,9 +5592,8 @@
       <c r="E249" s="19"/>
       <c r="F249" s="19"/>
       <c r="G249" s="19"/>
-      <c r="H249" s="19"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -5560,9 +5601,8 @@
       <c r="E250" s="19"/>
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
-      <c r="H250" s="19"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -5570,9 +5610,8 @@
       <c r="E251" s="19"/>
       <c r="F251" s="19"/>
       <c r="G251" s="19"/>
-      <c r="H251" s="19"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -5580,9 +5619,8 @@
       <c r="E252" s="19"/>
       <c r="F252" s="19"/>
       <c r="G252" s="19"/>
-      <c r="H252" s="19"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -5590,9 +5628,8 @@
       <c r="E253" s="19"/>
       <c r="F253" s="19"/>
       <c r="G253" s="19"/>
-      <c r="H253" s="19"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -5600,9 +5637,8 @@
       <c r="E254" s="19"/>
       <c r="F254" s="19"/>
       <c r="G254" s="19"/>
-      <c r="H254" s="19"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -5610,9 +5646,8 @@
       <c r="E255" s="19"/>
       <c r="F255" s="19"/>
       <c r="G255" s="19"/>
-      <c r="H255" s="19"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -5620,9 +5655,8 @@
       <c r="E256" s="19"/>
       <c r="F256" s="19"/>
       <c r="G256" s="19"/>
-      <c r="H256" s="19"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="20"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -5630,9 +5664,8 @@
       <c r="E257" s="19"/>
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
-      <c r="H257" s="19"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -5640,9 +5673,8 @@
       <c r="E258" s="19"/>
       <c r="F258" s="19"/>
       <c r="G258" s="19"/>
-      <c r="H258" s="19"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -5650,9 +5682,8 @@
       <c r="E259" s="19"/>
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
-      <c r="H259" s="19"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="20"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -5660,9 +5691,8 @@
       <c r="E260" s="19"/>
       <c r="F260" s="19"/>
       <c r="G260" s="19"/>
-      <c r="H260" s="19"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -5670,9 +5700,8 @@
       <c r="E261" s="19"/>
       <c r="F261" s="19"/>
       <c r="G261" s="19"/>
-      <c r="H261" s="19"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -5682,7 +5711,7 @@
       <c r="G262" s="19"/>
       <c r="H262" s="19"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -5692,7 +5721,7 @@
       <c r="G263" s="19"/>
       <c r="H263" s="19"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -5702,7 +5731,7 @@
       <c r="G264" s="19"/>
       <c r="H264" s="19"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -5712,7 +5741,7 @@
       <c r="G265" s="19"/>
       <c r="H265" s="19"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
@@ -5722,7 +5751,7 @@
       <c r="G266" s="19"/>
       <c r="H266" s="19"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -5732,7 +5761,7 @@
       <c r="G267" s="19"/>
       <c r="H267" s="19"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -5742,7 +5771,7 @@
       <c r="G268" s="19"/>
       <c r="H268" s="19"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -5752,7 +5781,7 @@
       <c r="G269" s="19"/>
       <c r="H269" s="19"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -5762,7 +5791,7 @@
       <c r="G270" s="19"/>
       <c r="H270" s="19"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -5772,7 +5801,7 @@
       <c r="G271" s="19"/>
       <c r="H271" s="19"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -5782,7 +5811,7 @@
       <c r="G272" s="19"/>
       <c r="H272" s="19"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -5792,7 +5821,7 @@
       <c r="G273" s="19"/>
       <c r="H273" s="19"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="20"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -5802,7 +5831,7 @@
       <c r="G274" s="19"/>
       <c r="H274" s="19"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -5812,7 +5841,7 @@
       <c r="G275" s="19"/>
       <c r="H275" s="19"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="20"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -5822,7 +5851,7 @@
       <c r="G276" s="19"/>
       <c r="H276" s="19"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -5832,7 +5861,7 @@
       <c r="G277" s="19"/>
       <c r="H277" s="19"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -5842,7 +5871,7 @@
       <c r="G278" s="19"/>
       <c r="H278" s="19"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -5852,7 +5881,7 @@
       <c r="G279" s="19"/>
       <c r="H279" s="19"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -5862,7 +5891,7 @@
       <c r="G280" s="19"/>
       <c r="H280" s="19"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -5872,7 +5901,7 @@
       <c r="G281" s="19"/>
       <c r="H281" s="19"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -5882,7 +5911,7 @@
       <c r="G282" s="19"/>
       <c r="H282" s="19"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
@@ -5892,7 +5921,7 @@
       <c r="G283" s="19"/>
       <c r="H283" s="19"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -5902,7 +5931,7 @@
       <c r="G284" s="19"/>
       <c r="H284" s="19"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -5912,7 +5941,7 @@
       <c r="G285" s="19"/>
       <c r="H285" s="19"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -5922,7 +5951,7 @@
       <c r="G286" s="19"/>
       <c r="H286" s="19"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -5932,7 +5961,7 @@
       <c r="G287" s="19"/>
       <c r="H287" s="19"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="20"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
@@ -5942,7 +5971,7 @@
       <c r="G288" s="19"/>
       <c r="H288" s="19"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -5952,7 +5981,7 @@
       <c r="G289" s="19"/>
       <c r="H289" s="19"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="20"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -5962,7 +5991,7 @@
       <c r="G290" s="19"/>
       <c r="H290" s="19"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
@@ -5972,7 +6001,7 @@
       <c r="G291" s="19"/>
       <c r="H291" s="19"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="20"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -5982,7 +6011,7 @@
       <c r="G292" s="19"/>
       <c r="H292" s="19"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -5992,7 +6021,7 @@
       <c r="G293" s="19"/>
       <c r="H293" s="19"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="20"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -6002,7 +6031,7 @@
       <c r="G294" s="19"/>
       <c r="H294" s="19"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -6012,7 +6041,7 @@
       <c r="G295" s="19"/>
       <c r="H295" s="19"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="20"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -6022,7 +6051,7 @@
       <c r="G296" s="19"/>
       <c r="H296" s="19"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -6032,7 +6061,7 @@
       <c r="G297" s="19"/>
       <c r="H297" s="19"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="20"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -6042,7 +6071,7 @@
       <c r="G298" s="19"/>
       <c r="H298" s="19"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -6052,7 +6081,7 @@
       <c r="G299" s="19"/>
       <c r="H299" s="19"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -6062,7 +6091,7 @@
       <c r="G300" s="19"/>
       <c r="H300" s="19"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -6072,7 +6101,7 @@
       <c r="G301" s="19"/>
       <c r="H301" s="19"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -6082,7 +6111,7 @@
       <c r="G302" s="19"/>
       <c r="H302" s="19"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -6092,7 +6121,7 @@
       <c r="G303" s="19"/>
       <c r="H303" s="19"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -6102,7 +6131,7 @@
       <c r="G304" s="19"/>
       <c r="H304" s="19"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -6112,7 +6141,7 @@
       <c r="G305" s="19"/>
       <c r="H305" s="19"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -6122,7 +6151,7 @@
       <c r="G306" s="19"/>
       <c r="H306" s="19"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -6132,7 +6161,7 @@
       <c r="G307" s="19"/>
       <c r="H307" s="19"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="20"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -6142,7 +6171,7 @@
       <c r="G308" s="19"/>
       <c r="H308" s="19"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -6152,7 +6181,7 @@
       <c r="G309" s="19"/>
       <c r="H309" s="19"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -6162,7 +6191,7 @@
       <c r="G310" s="19"/>
       <c r="H310" s="19"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -6172,7 +6201,7 @@
       <c r="G311" s="19"/>
       <c r="H311" s="19"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -6182,7 +6211,7 @@
       <c r="G312" s="19"/>
       <c r="H312" s="19"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="20"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -6192,7 +6221,7 @@
       <c r="G313" s="19"/>
       <c r="H313" s="19"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -6202,7 +6231,7 @@
       <c r="G314" s="19"/>
       <c r="H314" s="19"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -6212,7 +6241,7 @@
       <c r="G315" s="19"/>
       <c r="H315" s="19"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -6222,7 +6251,7 @@
       <c r="G316" s="19"/>
       <c r="H316" s="19"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="20"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -6232,7 +6261,7 @@
       <c r="G317" s="19"/>
       <c r="H317" s="19"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -6242,7 +6271,7 @@
       <c r="G318" s="19"/>
       <c r="H318" s="19"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -6252,7 +6281,7 @@
       <c r="G319" s="19"/>
       <c r="H319" s="19"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="20"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -6262,7 +6291,7 @@
       <c r="G320" s="19"/>
       <c r="H320" s="19"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -6272,7 +6301,7 @@
       <c r="G321" s="19"/>
       <c r="H321" s="19"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -6282,7 +6311,7 @@
       <c r="G322" s="19"/>
       <c r="H322" s="19"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
@@ -6292,7 +6321,7 @@
       <c r="G323" s="19"/>
       <c r="H323" s="19"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="20"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -6302,7 +6331,7 @@
       <c r="G324" s="19"/>
       <c r="H324" s="19"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="20"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -6312,7 +6341,7 @@
       <c r="G325" s="19"/>
       <c r="H325" s="19"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -6322,7 +6351,7 @@
       <c r="G326" s="19"/>
       <c r="H326" s="19"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -6332,7 +6361,7 @@
       <c r="G327" s="19"/>
       <c r="H327" s="19"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="20"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -6342,7 +6371,7 @@
       <c r="G328" s="19"/>
       <c r="H328" s="19"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="20"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -6352,7 +6381,7 @@
       <c r="G329" s="19"/>
       <c r="H329" s="19"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="20"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -6362,7 +6391,7 @@
       <c r="G330" s="19"/>
       <c r="H330" s="19"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="20"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -6372,7 +6401,7 @@
       <c r="G331" s="19"/>
       <c r="H331" s="19"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="20"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -6382,7 +6411,7 @@
       <c r="G332" s="19"/>
       <c r="H332" s="19"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="20"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -6392,7 +6421,7 @@
       <c r="G333" s="19"/>
       <c r="H333" s="19"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="20"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -6402,7 +6431,7 @@
       <c r="G334" s="19"/>
       <c r="H334" s="19"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="20"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -6412,7 +6441,7 @@
       <c r="G335" s="19"/>
       <c r="H335" s="19"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="20"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -6422,7 +6451,7 @@
       <c r="G336" s="19"/>
       <c r="H336" s="19"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="20"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -6432,7 +6461,7 @@
       <c r="G337" s="19"/>
       <c r="H337" s="19"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="20"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -6442,7 +6471,7 @@
       <c r="G338" s="19"/>
       <c r="H338" s="19"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="20"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -6452,7 +6481,7 @@
       <c r="G339" s="19"/>
       <c r="H339" s="19"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="20"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -6462,7 +6491,7 @@
       <c r="G340" s="19"/>
       <c r="H340" s="19"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="20"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -6472,7 +6501,7 @@
       <c r="G341" s="19"/>
       <c r="H341" s="19"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="20"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -6482,7 +6511,7 @@
       <c r="G342" s="19"/>
       <c r="H342" s="19"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="20"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -6492,7 +6521,7 @@
       <c r="G343" s="19"/>
       <c r="H343" s="19"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="20"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -6502,7 +6531,7 @@
       <c r="G344" s="19"/>
       <c r="H344" s="19"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="20"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -6512,7 +6541,7 @@
       <c r="G345" s="19"/>
       <c r="H345" s="19"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="20"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
@@ -6522,7 +6551,7 @@
       <c r="G346" s="19"/>
       <c r="H346" s="19"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="20"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -6532,7 +6561,7 @@
       <c r="G347" s="19"/>
       <c r="H347" s="19"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="20"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -6542,7 +6571,7 @@
       <c r="G348" s="19"/>
       <c r="H348" s="19"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="20"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
@@ -6552,7 +6581,7 @@
       <c r="G349" s="19"/>
       <c r="H349" s="19"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="20"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -6562,7 +6591,7 @@
       <c r="G350" s="19"/>
       <c r="H350" s="19"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="20"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -6572,7 +6601,7 @@
       <c r="G351" s="19"/>
       <c r="H351" s="19"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="20"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -6582,7 +6611,7 @@
       <c r="G352" s="19"/>
       <c r="H352" s="19"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="20"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -6592,7 +6621,7 @@
       <c r="G353" s="19"/>
       <c r="H353" s="19"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="20"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -6602,7 +6631,7 @@
       <c r="G354" s="19"/>
       <c r="H354" s="19"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="20"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -6612,7 +6641,7 @@
       <c r="G355" s="19"/>
       <c r="H355" s="19"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="20"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -6622,7 +6651,7 @@
       <c r="G356" s="19"/>
       <c r="H356" s="19"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="20"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -6632,7 +6661,7 @@
       <c r="G357" s="19"/>
       <c r="H357" s="19"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="20"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
@@ -6642,7 +6671,7 @@
       <c r="G358" s="19"/>
       <c r="H358" s="19"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="20"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -6652,7 +6681,7 @@
       <c r="G359" s="19"/>
       <c r="H359" s="19"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="20"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -6662,7 +6691,7 @@
       <c r="G360" s="19"/>
       <c r="H360" s="19"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="20"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -6672,7 +6701,7 @@
       <c r="G361" s="19"/>
       <c r="H361" s="19"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="20"/>
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
@@ -6682,7 +6711,7 @@
       <c r="G362" s="19"/>
       <c r="H362" s="19"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="20"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -6692,7 +6721,7 @@
       <c r="G363" s="19"/>
       <c r="H363" s="19"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="20"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -6702,7 +6731,7 @@
       <c r="G364" s="19"/>
       <c r="H364" s="19"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="20"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
@@ -6712,7 +6741,7 @@
       <c r="G365" s="19"/>
       <c r="H365" s="19"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="20"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -6722,7 +6751,7 @@
       <c r="G366" s="19"/>
       <c r="H366" s="19"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="20"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -6732,7 +6761,7 @@
       <c r="G367" s="19"/>
       <c r="H367" s="19"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="20"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -6742,7 +6771,7 @@
       <c r="G368" s="19"/>
       <c r="H368" s="19"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="20"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -6752,7 +6781,7 @@
       <c r="G369" s="19"/>
       <c r="H369" s="19"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="20"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -6762,7 +6791,7 @@
       <c r="G370" s="19"/>
       <c r="H370" s="19"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="20"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -6772,7 +6801,7 @@
       <c r="G371" s="19"/>
       <c r="H371" s="19"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="20"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -6782,7 +6811,7 @@
       <c r="G372" s="19"/>
       <c r="H372" s="19"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="20"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
@@ -6792,7 +6821,7 @@
       <c r="G373" s="19"/>
       <c r="H373" s="19"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="20"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -6802,7 +6831,7 @@
       <c r="G374" s="19"/>
       <c r="H374" s="19"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="20"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
@@ -6812,7 +6841,7 @@
       <c r="G375" s="19"/>
       <c r="H375" s="19"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="20"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
@@ -6822,7 +6851,7 @@
       <c r="G376" s="19"/>
       <c r="H376" s="19"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="20"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
@@ -6832,7 +6861,7 @@
       <c r="G377" s="19"/>
       <c r="H377" s="19"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="20"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
@@ -6842,7 +6871,7 @@
       <c r="G378" s="19"/>
       <c r="H378" s="19"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="20"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
@@ -6852,7 +6881,7 @@
       <c r="G379" s="19"/>
       <c r="H379" s="19"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="20"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
@@ -6862,7 +6891,7 @@
       <c r="G380" s="19"/>
       <c r="H380" s="19"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="20"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
@@ -6872,7 +6901,7 @@
       <c r="G381" s="19"/>
       <c r="H381" s="19"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="20"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
@@ -6882,7 +6911,7 @@
       <c r="G382" s="19"/>
       <c r="H382" s="19"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="20"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
@@ -6892,7 +6921,7 @@
       <c r="G383" s="19"/>
       <c r="H383" s="19"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="20"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
@@ -6902,7 +6931,7 @@
       <c r="G384" s="19"/>
       <c r="H384" s="19"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="20"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
@@ -6914,7 +6943,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D208:E208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GA_POC/GiantPelda.xlsx
+++ b/GA_POC/GiantPelda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBFC2AF-F82E-4562-843E-2196927B0161}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670FDA6-D3B7-4B50-A765-BDA4D9905A72}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="268">
   <si>
     <t>KERESET</t>
   </si>
@@ -825,9 +825,6 @@
   </si>
   <si>
     <t>RANTOTTHUS</t>
-  </si>
-  <si>
-    <t>rigth</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,10 +1173,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2296,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3601,8 +3601,8 @@
       <c r="B117" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C117" s="19" t="s">
-        <v>233</v>
+      <c r="C117" s="28" t="s">
+        <v>232</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
@@ -4036,7 +4036,7 @@
         <v>108</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G144" s="19"/>
     </row>
@@ -4081,7 +4081,7 @@
         <v>133</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G147" s="19"/>
     </row>
@@ -4111,7 +4111,7 @@
         <v>161</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G149" s="19"/>
     </row>
@@ -4126,7 +4126,7 @@
         <v>182</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G150" s="19"/>
     </row>
@@ -4156,7 +4156,7 @@
         <v>69</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G152" s="19"/>
     </row>
@@ -4246,7 +4246,7 @@
         <v>69</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G158" s="19"/>
     </row>
@@ -4542,10 +4542,10 @@
       <c r="A177" s="24">
         <v>173</v>
       </c>
-      <c r="B177" s="28" t="s">
+      <c r="B177" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="C177" s="28" t="s">
+      <c r="C177" s="27" t="s">
         <v>203</v>
       </c>
       <c r="D177" s="19" t="s">
@@ -4864,7 +4864,7 @@
       <c r="C197" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D197" s="19" t="s">
+      <c r="D197" s="28" t="s">
         <v>262</v>
       </c>
       <c r="E197" s="19"/>
@@ -5025,7 +5025,7 @@
         <v>53</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" s="19"/>
@@ -5036,10 +5036,10 @@
       </c>
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
-      <c r="D208" s="27" t="s">
+      <c r="D208" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="E208" s="27"/>
+      <c r="E208" s="29"/>
       <c r="F208" s="19"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5369,8 +5369,8 @@
       <c r="B229" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C229" s="19" t="s">
-        <v>2</v>
+      <c r="C229" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D229" s="19" t="s">
         <v>182</v>
